--- a/ScTypeDB_full.xlsx
+++ b/ScTypeDB_full.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10719"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10811"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jdg67/SCAnalysis/HBOW/data/genesets/Mouse/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jdg67/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C160ED8E-A3A9-BE45-9700-9C4B993E4D33}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D6930A2-3A12-CD49-A97B-A976E0B57398}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16400" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -678,9 +678,6 @@
     <t>Cd3e, Ptprc, Cd68, Il2ra, Foxp3, Cd4, Itgam, Cd19,Ccl12, Pid1, Cd74, Cd68, Mmp12, Trem2, Lgals3</t>
   </si>
   <si>
-    <t>Vim, Col1a1, Cd44, Acta2,Dcn, Col3a1, Col1a1, Col2a2, Lum, Mfap5, Fn1, Ly6a, Fbn1, Postn, Bgn, Col6a2, Col5a2</t>
-  </si>
-  <si>
     <t>Vwf, Cd34, Pecam1,Gpc6,Tbc1d8,Fam13a,Ppp2r2b,Pbk,Nav3,Ube2c,Ckap2l,Vegfa,Pclaf,Birc5,Inpp4b,Prc1,Cenpm,Rrm2,Ext1,Dclk1,Sorcs1,Jarid2,Las1l,Ero1l,Adm,Tk1,Rfc4,Tc2n,Cdk14,Palld,Phgdh,Adam12,Abcc1,Tpx2,Dut,Adamts12</t>
   </si>
   <si>
@@ -688,6 +685,9 @@
   </si>
   <si>
     <t>Birc5,Mki67,Pclaf,Ube2c,Top2a,Ccna2,Cdca3,Stmn1,Nusap1,Ccnb1,Cenpe,Cenpf,Aurkb,Smc2,Cdca8,Tk1,Ckap2l,Ccnb2,Knl1,Tpx2,Spc24,Prc1,Hmmr,Cdc20,Cenpa,Incenp,Aspm,Aurka, Cenpf</t>
+  </si>
+  <si>
+    <t>Col1a1, Cd44, Acta2,Dcn, Col3a1, Col1a1, Col2a2, Lum, Mfap5, Fn1, Ly6a, Fbn1, Bgn, Col6a2, Col5a2</t>
   </si>
 </sst>
 </file>
@@ -1110,8 +1110,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E87"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A73" zoomScale="144" zoomScaleNormal="144" workbookViewId="0">
-      <selection activeCell="C86" sqref="C86"/>
+    <sheetView tabSelected="1" topLeftCell="A69" zoomScale="144" zoomScaleNormal="144" workbookViewId="0">
+      <selection activeCell="A83" sqref="A83:XFD83"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2206,7 +2206,7 @@
         <v>4</v>
       </c>
       <c r="C84" s="4" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.2">
@@ -2217,7 +2217,7 @@
         <v>195</v>
       </c>
       <c r="C85" s="4" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.2">
@@ -2225,10 +2225,10 @@
         <v>207</v>
       </c>
       <c r="B86" t="s">
+        <v>213</v>
+      </c>
+      <c r="C86" s="8" t="s">
         <v>214</v>
-      </c>
-      <c r="C86" s="8" t="s">
-        <v>215</v>
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.2">

--- a/ScTypeDB_full.xlsx
+++ b/ScTypeDB_full.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10811"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20401"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jdg67/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jdg67\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D6930A2-3A12-CD49-A97B-A976E0B57398}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B72CA0C-8DF2-49AF-A826-5425257CB4C3}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16400" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="495" windowWidth="28800" windowHeight="16395" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
@@ -20,17 +20,6 @@
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
     </ext>
@@ -39,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="305" uniqueCount="216">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="500" uniqueCount="282">
   <si>
     <t>tissueType</t>
   </si>
@@ -688,13 +677,211 @@
   </si>
   <si>
     <t>Col1a1, Cd44, Acta2,Dcn, Col3a1, Col1a1, Col2a2, Lum, Mfap5, Fn1, Ly6a, Fbn1, Bgn, Col6a2, Col5a2</t>
+  </si>
+  <si>
+    <t>Combined</t>
+  </si>
+  <si>
+    <t>Fibroblasts_c</t>
+  </si>
+  <si>
+    <t>Endothelium_c</t>
+  </si>
+  <si>
+    <t>Cycling_c</t>
+  </si>
+  <si>
+    <t>Visvader_Luminal_c</t>
+  </si>
+  <si>
+    <t>Visvader_Basal_c</t>
+  </si>
+  <si>
+    <t>Visvader_MxL_c</t>
+  </si>
+  <si>
+    <t>Visvader_LI_c</t>
+  </si>
+  <si>
+    <t>BP_MP_Common_c</t>
+  </si>
+  <si>
+    <t>BP_MP_BtoL_c</t>
+  </si>
+  <si>
+    <t>BP_MP_LtoB_c</t>
+  </si>
+  <si>
+    <t>BP_EMP_EMP_c</t>
+  </si>
+  <si>
+    <t>BP_EMP_Basal_c</t>
+  </si>
+  <si>
+    <t>BP_EMP_LumHR+_c</t>
+  </si>
+  <si>
+    <t>BP_EMP_LumHR-_c</t>
+  </si>
+  <si>
+    <t>BP_EMP_LUM_c</t>
+  </si>
+  <si>
+    <t>Khaled_Hsd_Hsp_c</t>
+  </si>
+  <si>
+    <t>Khaled_Hsp_Lp_Avp_Avd_c</t>
+  </si>
+  <si>
+    <t>Khaled_Avp_Avd_c</t>
+  </si>
+  <si>
+    <t>Khaled_Avd_c</t>
+  </si>
+  <si>
+    <t>Khaled_Bsl_c</t>
+  </si>
+  <si>
+    <t>Khaled_Myo_c</t>
+  </si>
+  <si>
+    <t>Khaled_Prc_c</t>
+  </si>
+  <si>
+    <t>Kessenbrock_Basal_c</t>
+  </si>
+  <si>
+    <t>Kessenbrock_L1_c</t>
+  </si>
+  <si>
+    <t>Kessenbrock_L2_c</t>
+  </si>
+  <si>
+    <t>Kessenbrock_X_c</t>
+  </si>
+  <si>
+    <t>Wahl_fMaSC_c</t>
+  </si>
+  <si>
+    <t>Wahl_MMPr_c</t>
+  </si>
+  <si>
+    <t>Wahl_Matrix_c</t>
+  </si>
+  <si>
+    <t>Wahl_Luminal_c</t>
+  </si>
+  <si>
+    <t>Wahl_Basal_c</t>
+  </si>
+  <si>
+    <t>Wahl_immune_c</t>
+  </si>
+  <si>
+    <t>Pro-B cells_c</t>
+  </si>
+  <si>
+    <t>Pre-B cells_c</t>
+  </si>
+  <si>
+    <t>Naive B cells_c</t>
+  </si>
+  <si>
+    <t>Memory B cells_c</t>
+  </si>
+  <si>
+    <t>Plasma B cells_c</t>
+  </si>
+  <si>
+    <t>Naive CD8+ T cells_c</t>
+  </si>
+  <si>
+    <t>Naive CD4+ T cells_c</t>
+  </si>
+  <si>
+    <t>Memory CD8+ T cells_c</t>
+  </si>
+  <si>
+    <t>Memory CD4+ T cells_c</t>
+  </si>
+  <si>
+    <t>Effector CD8+ T cells_c</t>
+  </si>
+  <si>
+    <t>Effector CD4+ T cells_c</t>
+  </si>
+  <si>
+    <t>γδ-T cells_c</t>
+  </si>
+  <si>
+    <t>Platelets_c</t>
+  </si>
+  <si>
+    <t>CD8+ NKT-like cells_c</t>
+  </si>
+  <si>
+    <t>CD4+ NKT-like cells_c</t>
+  </si>
+  <si>
+    <t>Natural killer  cells_c</t>
+  </si>
+  <si>
+    <t>Eosinophils_c</t>
+  </si>
+  <si>
+    <t>Neutrophils_c</t>
+  </si>
+  <si>
+    <t>Basophils_c</t>
+  </si>
+  <si>
+    <t>Mast cells_c</t>
+  </si>
+  <si>
+    <t>Classical Monocytes_c</t>
+  </si>
+  <si>
+    <t>Non-classical monocytes_c</t>
+  </si>
+  <si>
+    <t>Intermediate monocytes_c</t>
+  </si>
+  <si>
+    <t>Macrophages_c</t>
+  </si>
+  <si>
+    <t>Megakaryocyte_c</t>
+  </si>
+  <si>
+    <t>Endothelial_c</t>
+  </si>
+  <si>
+    <t>Erythroid-like and erythroid precursor cells_c</t>
+  </si>
+  <si>
+    <t>HSC/MPP cells_c</t>
+  </si>
+  <si>
+    <t>Progenitor cells_c</t>
+  </si>
+  <si>
+    <t>Myeloid Dendritic cells_c</t>
+  </si>
+  <si>
+    <t>Plasmacytoid Dendritic cells_c</t>
+  </si>
+  <si>
+    <t>Granulocytes_c</t>
+  </si>
+  <si>
+    <t>ISG expressing immune cells_c</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -787,7 +974,37 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="1">
+  <dxfs count="4">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -1108,22 +1325,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E87"/>
+  <dimension ref="A1:E151"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A69" zoomScale="144" zoomScaleNormal="144" workbookViewId="0">
-      <selection activeCell="A83" sqref="A83:XFD83"/>
+    <sheetView tabSelected="1" topLeftCell="A133" zoomScale="144" zoomScaleNormal="144" workbookViewId="0">
+      <selection activeCell="A87" sqref="A87:A151"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="13.83203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="35.83203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="214.6640625" customWidth="1"/>
-    <col min="4" max="4" width="27.1640625" customWidth="1"/>
+    <col min="1" max="1" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="35.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="214.7109375" customWidth="1"/>
+    <col min="4" max="4" width="27.140625" customWidth="1"/>
     <col min="5" max="5" width="39" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1140,7 +1357,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5">
       <c r="A2" s="2" t="s">
         <v>5</v>
       </c>
@@ -1155,7 +1372,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5">
       <c r="A3" s="2" t="s">
         <v>5</v>
       </c>
@@ -1170,7 +1387,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5">
       <c r="A4" s="2" t="s">
         <v>5</v>
       </c>
@@ -1185,7 +1402,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5">
       <c r="A5" s="2" t="s">
         <v>5</v>
       </c>
@@ -1200,7 +1417,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5">
       <c r="A6" s="2" t="s">
         <v>5</v>
       </c>
@@ -1217,7 +1434,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5">
       <c r="A7" s="2" t="s">
         <v>5</v>
       </c>
@@ -1234,7 +1451,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:5">
       <c r="A8" s="2" t="s">
         <v>5</v>
       </c>
@@ -1251,7 +1468,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:5">
       <c r="A9" s="2" t="s">
         <v>5</v>
       </c>
@@ -1266,7 +1483,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:5">
       <c r="A10" s="2" t="s">
         <v>5</v>
       </c>
@@ -1281,7 +1498,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:5">
       <c r="A11" s="2" t="s">
         <v>5</v>
       </c>
@@ -1298,7 +1515,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:5">
       <c r="A12" s="2" t="s">
         <v>5</v>
       </c>
@@ -1315,7 +1532,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:5">
       <c r="A13" s="2" t="s">
         <v>5</v>
       </c>
@@ -1332,7 +1549,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:5">
       <c r="A14" s="2" t="s">
         <v>5</v>
       </c>
@@ -1347,7 +1564,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:5">
       <c r="A15" s="2" t="s">
         <v>5</v>
       </c>
@@ -1362,7 +1579,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:5">
       <c r="A16" s="2" t="s">
         <v>5</v>
       </c>
@@ -1377,7 +1594,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:5">
       <c r="A17" s="2" t="s">
         <v>5</v>
       </c>
@@ -1394,7 +1611,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:5">
       <c r="A18" s="2" t="s">
         <v>5</v>
       </c>
@@ -1409,7 +1626,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:5">
       <c r="A19" s="2" t="s">
         <v>5</v>
       </c>
@@ -1424,7 +1641,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:5">
       <c r="A20" s="2" t="s">
         <v>5</v>
       </c>
@@ -1439,7 +1656,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:5">
       <c r="A21" s="2" t="s">
         <v>5</v>
       </c>
@@ -1454,7 +1671,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:5">
       <c r="A22" s="2" t="s">
         <v>5</v>
       </c>
@@ -1471,7 +1688,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:5">
       <c r="A23" s="2" t="s">
         <v>5</v>
       </c>
@@ -1488,7 +1705,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:5">
       <c r="A24" s="2" t="s">
         <v>5</v>
       </c>
@@ -1505,7 +1722,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:5">
       <c r="A25" s="2" t="s">
         <v>5</v>
       </c>
@@ -1522,7 +1739,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:5">
       <c r="A26" s="2" t="s">
         <v>5</v>
       </c>
@@ -1537,7 +1754,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:5">
       <c r="A27" s="2" t="s">
         <v>5</v>
       </c>
@@ -1552,7 +1769,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:5">
       <c r="A28" s="2" t="s">
         <v>5</v>
       </c>
@@ -1567,7 +1784,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:5">
       <c r="A29" s="2" t="s">
         <v>5</v>
       </c>
@@ -1584,7 +1801,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:5">
       <c r="A30" s="2" t="s">
         <v>5</v>
       </c>
@@ -1599,7 +1816,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:5">
       <c r="A31" s="2" t="s">
         <v>5</v>
       </c>
@@ -1614,7 +1831,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:5">
       <c r="A32" s="2" t="s">
         <v>5</v>
       </c>
@@ -1629,7 +1846,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:5">
       <c r="A33" s="2" t="s">
         <v>5</v>
       </c>
@@ -1644,7 +1861,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:5">
       <c r="A34" s="2" t="s">
         <v>5</v>
       </c>
@@ -1659,7 +1876,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:5">
       <c r="A35" s="4" t="s">
         <v>112</v>
       </c>
@@ -1670,7 +1887,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:5">
       <c r="A36" s="4" t="s">
         <v>112</v>
       </c>
@@ -1681,7 +1898,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:5">
       <c r="A37" s="4" t="s">
         <v>112</v>
       </c>
@@ -1692,7 +1909,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:5">
       <c r="A38" s="4" t="s">
         <v>112</v>
       </c>
@@ -1703,7 +1920,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:5">
       <c r="A39" s="4" t="s">
         <v>112</v>
       </c>
@@ -1714,7 +1931,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:5">
       <c r="A40" s="4" t="s">
         <v>112</v>
       </c>
@@ -1725,7 +1942,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:5">
       <c r="A41" s="4" t="s">
         <v>112</v>
       </c>
@@ -1736,7 +1953,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:5">
       <c r="A42" s="4" t="s">
         <v>112</v>
       </c>
@@ -1747,7 +1964,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="43" spans="1:5" ht="20" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:5" ht="20.25">
       <c r="A43" s="4" t="s">
         <v>194</v>
       </c>
@@ -1758,7 +1975,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="44" spans="1:5" ht="32" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:5" ht="30">
       <c r="A44" s="4" t="s">
         <v>194</v>
       </c>
@@ -1769,7 +1986,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="45" spans="1:5" ht="20" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:5" ht="20.25">
       <c r="A45" s="4" t="s">
         <v>194</v>
       </c>
@@ -1780,7 +1997,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:5">
       <c r="A46" s="4" t="s">
         <v>194</v>
       </c>
@@ -1791,7 +2008,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:5">
       <c r="A47" s="4" t="s">
         <v>194</v>
       </c>
@@ -1802,7 +2019,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:5">
       <c r="A48" s="4" t="s">
         <v>194</v>
       </c>
@@ -1813,7 +2030,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:3">
       <c r="A49" s="4" t="s">
         <v>194</v>
       </c>
@@ -1824,7 +2041,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:3">
       <c r="A50" s="4" t="s">
         <v>194</v>
       </c>
@@ -1835,7 +2052,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:3">
       <c r="A51" s="4" t="s">
         <v>194</v>
       </c>
@@ -1846,7 +2063,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:3">
       <c r="A52" s="4" t="s">
         <v>194</v>
       </c>
@@ -1857,7 +2074,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:3">
       <c r="A53" s="4" t="s">
         <v>194</v>
       </c>
@@ -1868,7 +2085,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:3">
       <c r="A54" s="4" t="s">
         <v>194</v>
       </c>
@@ -1879,7 +2096,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:3">
       <c r="A55" s="4" t="s">
         <v>194</v>
       </c>
@@ -1890,7 +2107,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:3">
       <c r="A56" s="4" t="s">
         <v>194</v>
       </c>
@@ -1901,7 +2118,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:3">
       <c r="A57" s="4" t="s">
         <v>194</v>
       </c>
@@ -1912,7 +2129,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:3">
       <c r="A58" s="4" t="s">
         <v>194</v>
       </c>
@@ -1923,7 +2140,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:3">
       <c r="A59" s="4" t="s">
         <v>194</v>
       </c>
@@ -1934,7 +2151,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:3">
       <c r="A60" s="4" t="s">
         <v>194</v>
       </c>
@@ -1945,7 +2162,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:3">
       <c r="A61" s="4" t="s">
         <v>194</v>
       </c>
@@ -1956,7 +2173,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:3">
       <c r="A62" s="4" t="s">
         <v>194</v>
       </c>
@@ -1967,7 +2184,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:3">
       <c r="A63" s="4" t="s">
         <v>194</v>
       </c>
@@ -1978,7 +2195,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:3">
       <c r="A64" s="4" t="s">
         <v>194</v>
       </c>
@@ -1989,7 +2206,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:3">
       <c r="A65" s="4" t="s">
         <v>194</v>
       </c>
@@ -2000,7 +2217,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:3">
       <c r="A66" s="4" t="s">
         <v>194</v>
       </c>
@@ -2011,7 +2228,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:3">
       <c r="A67" s="4" t="s">
         <v>194</v>
       </c>
@@ -2022,7 +2239,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:3">
       <c r="A68" s="4" t="s">
         <v>194</v>
       </c>
@@ -2033,7 +2250,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:3">
       <c r="A69" s="4" t="s">
         <v>194</v>
       </c>
@@ -2044,7 +2261,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:3">
       <c r="A70" s="4" t="s">
         <v>194</v>
       </c>
@@ -2055,7 +2272,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:3">
       <c r="A71" s="4" t="s">
         <v>194</v>
       </c>
@@ -2066,7 +2283,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:3">
       <c r="A72" s="4" t="s">
         <v>194</v>
       </c>
@@ -2077,7 +2294,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:3">
       <c r="A73" s="4" t="s">
         <v>194</v>
       </c>
@@ -2088,7 +2305,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:3">
       <c r="A74" s="4" t="s">
         <v>194</v>
       </c>
@@ -2099,7 +2316,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:3">
       <c r="A75" s="4" t="s">
         <v>194</v>
       </c>
@@ -2110,7 +2327,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:3">
       <c r="A76" s="4" t="s">
         <v>194</v>
       </c>
@@ -2121,7 +2338,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:3">
       <c r="A77" t="s">
         <v>196</v>
       </c>
@@ -2132,7 +2349,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:3">
       <c r="A78" t="s">
         <v>196</v>
       </c>
@@ -2143,7 +2360,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:3">
       <c r="A79" t="s">
         <v>196</v>
       </c>
@@ -2154,7 +2371,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:3">
       <c r="A80" t="s">
         <v>196</v>
       </c>
@@ -2165,7 +2382,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:3">
       <c r="A81" t="s">
         <v>196</v>
       </c>
@@ -2176,7 +2393,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:3">
       <c r="A82" t="s">
         <v>207</v>
       </c>
@@ -2187,7 +2404,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:3">
       <c r="A83" t="s">
         <v>207</v>
       </c>
@@ -2198,7 +2415,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:3">
       <c r="A84" t="s">
         <v>207</v>
       </c>
@@ -2209,7 +2426,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:3">
       <c r="A85" t="s">
         <v>207</v>
       </c>
@@ -2220,7 +2437,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:3">
       <c r="A86" t="s">
         <v>207</v>
       </c>
@@ -2231,12 +2448,733 @@
         <v>214</v>
       </c>
     </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="C87" s="4"/>
+    <row r="87" spans="1:3">
+      <c r="A87" t="s">
+        <v>216</v>
+      </c>
+      <c r="B87" t="s">
+        <v>217</v>
+      </c>
+      <c r="C87" s="4" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3">
+      <c r="A88" t="s">
+        <v>216</v>
+      </c>
+      <c r="B88" t="s">
+        <v>218</v>
+      </c>
+      <c r="C88" s="4" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3">
+      <c r="A89" t="s">
+        <v>216</v>
+      </c>
+      <c r="B89" t="s">
+        <v>219</v>
+      </c>
+      <c r="C89" s="8" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" ht="20.25">
+      <c r="A90" t="s">
+        <v>216</v>
+      </c>
+      <c r="B90" t="s">
+        <v>220</v>
+      </c>
+      <c r="C90" s="6" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" ht="30">
+      <c r="A91" t="s">
+        <v>216</v>
+      </c>
+      <c r="B91" t="s">
+        <v>221</v>
+      </c>
+      <c r="C91" s="7" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" ht="20.25">
+      <c r="A92" t="s">
+        <v>216</v>
+      </c>
+      <c r="B92" t="s">
+        <v>222</v>
+      </c>
+      <c r="C92" s="6" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3">
+      <c r="A93" t="s">
+        <v>216</v>
+      </c>
+      <c r="B93" t="s">
+        <v>223</v>
+      </c>
+      <c r="C93" s="4" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3">
+      <c r="A94" t="s">
+        <v>216</v>
+      </c>
+      <c r="B94" t="s">
+        <v>224</v>
+      </c>
+      <c r="C94" s="4" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3">
+      <c r="A95" t="s">
+        <v>216</v>
+      </c>
+      <c r="B95" t="s">
+        <v>225</v>
+      </c>
+      <c r="C95" s="4" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3">
+      <c r="A96" t="s">
+        <v>216</v>
+      </c>
+      <c r="B96" t="s">
+        <v>226</v>
+      </c>
+      <c r="C96" s="4" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3">
+      <c r="A97" t="s">
+        <v>216</v>
+      </c>
+      <c r="B97" t="s">
+        <v>227</v>
+      </c>
+      <c r="C97" s="4" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3">
+      <c r="A98" t="s">
+        <v>216</v>
+      </c>
+      <c r="B98" t="s">
+        <v>228</v>
+      </c>
+      <c r="C98" s="4" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3">
+      <c r="A99" t="s">
+        <v>216</v>
+      </c>
+      <c r="B99" t="s">
+        <v>229</v>
+      </c>
+      <c r="C99" s="4" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3">
+      <c r="A100" t="s">
+        <v>216</v>
+      </c>
+      <c r="B100" t="s">
+        <v>230</v>
+      </c>
+      <c r="C100" s="4" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3">
+      <c r="A101" t="s">
+        <v>216</v>
+      </c>
+      <c r="B101" t="s">
+        <v>231</v>
+      </c>
+      <c r="C101" s="4" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3">
+      <c r="A102" t="s">
+        <v>216</v>
+      </c>
+      <c r="B102" t="s">
+        <v>232</v>
+      </c>
+      <c r="C102" s="4" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3">
+      <c r="A103" t="s">
+        <v>216</v>
+      </c>
+      <c r="B103" t="s">
+        <v>233</v>
+      </c>
+      <c r="C103" s="4" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3">
+      <c r="A104" t="s">
+        <v>216</v>
+      </c>
+      <c r="B104" t="s">
+        <v>234</v>
+      </c>
+      <c r="C104" s="4" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3">
+      <c r="A105" t="s">
+        <v>216</v>
+      </c>
+      <c r="B105" t="s">
+        <v>235</v>
+      </c>
+      <c r="C105" s="4" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3">
+      <c r="A106" t="s">
+        <v>216</v>
+      </c>
+      <c r="B106" t="s">
+        <v>236</v>
+      </c>
+      <c r="C106" s="4" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3">
+      <c r="A107" t="s">
+        <v>216</v>
+      </c>
+      <c r="B107" t="s">
+        <v>237</v>
+      </c>
+      <c r="C107" s="4" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3">
+      <c r="A108" t="s">
+        <v>216</v>
+      </c>
+      <c r="B108" t="s">
+        <v>238</v>
+      </c>
+      <c r="C108" s="4" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3">
+      <c r="A109" t="s">
+        <v>216</v>
+      </c>
+      <c r="B109" t="s">
+        <v>239</v>
+      </c>
+      <c r="C109" s="4" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3">
+      <c r="A110" t="s">
+        <v>216</v>
+      </c>
+      <c r="B110" t="s">
+        <v>240</v>
+      </c>
+      <c r="C110" s="4" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3">
+      <c r="A111" t="s">
+        <v>216</v>
+      </c>
+      <c r="B111" t="s">
+        <v>241</v>
+      </c>
+      <c r="C111" s="4" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3">
+      <c r="A112" t="s">
+        <v>216</v>
+      </c>
+      <c r="B112" t="s">
+        <v>242</v>
+      </c>
+      <c r="C112" s="4" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3">
+      <c r="A113" t="s">
+        <v>216</v>
+      </c>
+      <c r="B113" t="s">
+        <v>243</v>
+      </c>
+      <c r="C113" s="4" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3">
+      <c r="A114" t="s">
+        <v>216</v>
+      </c>
+      <c r="B114" t="s">
+        <v>244</v>
+      </c>
+      <c r="C114" s="4" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3">
+      <c r="A115" t="s">
+        <v>216</v>
+      </c>
+      <c r="B115" t="s">
+        <v>245</v>
+      </c>
+      <c r="C115" s="4" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3">
+      <c r="A116" t="s">
+        <v>216</v>
+      </c>
+      <c r="B116" t="s">
+        <v>246</v>
+      </c>
+      <c r="C116" s="4" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3">
+      <c r="A117" t="s">
+        <v>216</v>
+      </c>
+      <c r="B117" t="s">
+        <v>247</v>
+      </c>
+      <c r="C117" s="4" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3">
+      <c r="A118" t="s">
+        <v>216</v>
+      </c>
+      <c r="B118" t="s">
+        <v>248</v>
+      </c>
+      <c r="C118" s="4" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3">
+      <c r="A119" t="s">
+        <v>216</v>
+      </c>
+      <c r="B119" s="2" t="s">
+        <v>249</v>
+      </c>
+      <c r="C119" s="2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3">
+      <c r="A120" t="s">
+        <v>216</v>
+      </c>
+      <c r="B120" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="C120" s="2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3">
+      <c r="A121" t="s">
+        <v>216</v>
+      </c>
+      <c r="B121" s="2" t="s">
+        <v>251</v>
+      </c>
+      <c r="C121" s="2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3">
+      <c r="A122" t="s">
+        <v>216</v>
+      </c>
+      <c r="B122" s="2" t="s">
+        <v>252</v>
+      </c>
+      <c r="C122" s="2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3">
+      <c r="A123" t="s">
+        <v>216</v>
+      </c>
+      <c r="B123" s="2" t="s">
+        <v>253</v>
+      </c>
+      <c r="C123" s="2" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3">
+      <c r="A124" t="s">
+        <v>216</v>
+      </c>
+      <c r="B124" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="C124" s="2" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3">
+      <c r="A125" t="s">
+        <v>216</v>
+      </c>
+      <c r="B125" s="2" t="s">
+        <v>255</v>
+      </c>
+      <c r="C125" s="2" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3">
+      <c r="A126" t="s">
+        <v>216</v>
+      </c>
+      <c r="B126" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="C126" s="2" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3">
+      <c r="A127" t="s">
+        <v>216</v>
+      </c>
+      <c r="B127" s="2" t="s">
+        <v>257</v>
+      </c>
+      <c r="C127" s="2" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3">
+      <c r="A128" t="s">
+        <v>216</v>
+      </c>
+      <c r="B128" s="2" t="s">
+        <v>258</v>
+      </c>
+      <c r="C128" s="2" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3">
+      <c r="A129" t="s">
+        <v>216</v>
+      </c>
+      <c r="B129" s="2" t="s">
+        <v>259</v>
+      </c>
+      <c r="C129" s="2" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3">
+      <c r="A130" t="s">
+        <v>216</v>
+      </c>
+      <c r="B130" s="2" t="s">
+        <v>260</v>
+      </c>
+      <c r="C130" s="2" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="131" spans="1:3">
+      <c r="A131" t="s">
+        <v>216</v>
+      </c>
+      <c r="B131" s="2" t="s">
+        <v>261</v>
+      </c>
+      <c r="C131" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3">
+      <c r="A132" t="s">
+        <v>216</v>
+      </c>
+      <c r="B132" s="2" t="s">
+        <v>262</v>
+      </c>
+      <c r="C132" s="2" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="133" spans="1:3">
+      <c r="A133" t="s">
+        <v>216</v>
+      </c>
+      <c r="B133" s="2" t="s">
+        <v>263</v>
+      </c>
+      <c r="C133" s="2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="134" spans="1:3">
+      <c r="A134" t="s">
+        <v>216</v>
+      </c>
+      <c r="B134" s="2" t="s">
+        <v>264</v>
+      </c>
+      <c r="C134" s="2" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="135" spans="1:3">
+      <c r="A135" t="s">
+        <v>216</v>
+      </c>
+      <c r="B135" s="2" t="s">
+        <v>265</v>
+      </c>
+      <c r="C135" s="3" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="136" spans="1:3">
+      <c r="A136" t="s">
+        <v>216</v>
+      </c>
+      <c r="B136" s="2" t="s">
+        <v>266</v>
+      </c>
+      <c r="C136" s="3" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="137" spans="1:3">
+      <c r="A137" t="s">
+        <v>216</v>
+      </c>
+      <c r="B137" s="2" t="s">
+        <v>267</v>
+      </c>
+      <c r="C137" s="2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="138" spans="1:3">
+      <c r="A138" t="s">
+        <v>216</v>
+      </c>
+      <c r="B138" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="C138" s="3" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="139" spans="1:3">
+      <c r="A139" t="s">
+        <v>216</v>
+      </c>
+      <c r="B139" s="2" t="s">
+        <v>269</v>
+      </c>
+      <c r="C139" s="3" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="140" spans="1:3">
+      <c r="A140" t="s">
+        <v>216</v>
+      </c>
+      <c r="B140" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="C140" s="3" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="141" spans="1:3">
+      <c r="A141" t="s">
+        <v>216</v>
+      </c>
+      <c r="B141" s="2" t="s">
+        <v>271</v>
+      </c>
+      <c r="C141" s="3" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="142" spans="1:3">
+      <c r="A142" t="s">
+        <v>216</v>
+      </c>
+      <c r="B142" s="2" t="s">
+        <v>272</v>
+      </c>
+      <c r="C142" s="3" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="143" spans="1:3">
+      <c r="A143" t="s">
+        <v>216</v>
+      </c>
+      <c r="B143" s="2" t="s">
+        <v>273</v>
+      </c>
+      <c r="C143" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="144" spans="1:3">
+      <c r="A144" t="s">
+        <v>216</v>
+      </c>
+      <c r="B144" s="2" t="s">
+        <v>274</v>
+      </c>
+      <c r="C144" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="145" spans="1:3">
+      <c r="A145" t="s">
+        <v>216</v>
+      </c>
+      <c r="B145" s="2" t="s">
+        <v>275</v>
+      </c>
+      <c r="C145" s="3" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="146" spans="1:3">
+      <c r="A146" t="s">
+        <v>216</v>
+      </c>
+      <c r="B146" s="2" t="s">
+        <v>276</v>
+      </c>
+      <c r="C146" s="3" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="147" spans="1:3">
+      <c r="A147" t="s">
+        <v>216</v>
+      </c>
+      <c r="B147" s="2" t="s">
+        <v>277</v>
+      </c>
+      <c r="C147" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="148" spans="1:3">
+      <c r="A148" t="s">
+        <v>216</v>
+      </c>
+      <c r="B148" s="2" t="s">
+        <v>278</v>
+      </c>
+      <c r="C148" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="149" spans="1:3">
+      <c r="A149" t="s">
+        <v>216</v>
+      </c>
+      <c r="B149" s="2" t="s">
+        <v>279</v>
+      </c>
+      <c r="C149" s="3" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="150" spans="1:3">
+      <c r="A150" t="s">
+        <v>216</v>
+      </c>
+      <c r="B150" s="2" t="s">
+        <v>280</v>
+      </c>
+      <c r="C150" s="4" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="151" spans="1:3">
+      <c r="A151" t="s">
+        <v>216</v>
+      </c>
+      <c r="B151" s="2" t="s">
+        <v>281</v>
+      </c>
+      <c r="C151" s="3" t="s">
+        <v>65</v>
+      </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:E1" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
-  <conditionalFormatting sqref="B85:B1048576 B1:B83">
+  <conditionalFormatting sqref="B85:B86 B1:B83 B152:B1048576">
+    <cfRule type="duplicateValues" dxfId="3" priority="4"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B88:B89">
+    <cfRule type="duplicateValues" dxfId="2" priority="3"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B90:B118">
+    <cfRule type="duplicateValues" dxfId="1" priority="2"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B119:B151">
     <cfRule type="duplicateValues" dxfId="0" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/ScTypeDB_full.xlsx
+++ b/ScTypeDB_full.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20401"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10917"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jdg67\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jdg67/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B72CA0C-8DF2-49AF-A826-5425257CB4C3}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5D1A9A9-BEAA-1E4C-8613-88D1CDEADA78}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="495" windowWidth="28800" windowHeight="16395" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16400" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="500" uniqueCount="282">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="563" uniqueCount="322">
   <si>
     <t>tissueType</t>
   </si>
@@ -619,9 +619,6 @@
     <t>Endothelium</t>
   </si>
   <si>
-    <t>XeniumEpi</t>
-  </si>
-  <si>
     <t>Bystander</t>
   </si>
   <si>
@@ -875,13 +872,136 @@
   </si>
   <si>
     <t>ISG expressing immune cells_c</t>
+  </si>
+  <si>
+    <t>XeniumSimple</t>
+  </si>
+  <si>
+    <t>Adipose</t>
+  </si>
+  <si>
+    <t>ADH1B,ADIPOQ,ANKRD29,CAVIN2,CLEC14A,EGFL7,HOXD8,HOXD9,KDR,LPL,MMRN2,NDUFA4L2,NOSTRIN,PDCD1LG2,PDE4A,RAMP2,RAPGEF3,SOX18,TFAP2A,TIMP4,UCP1,</t>
+  </si>
+  <si>
+    <t>XeniumBreast</t>
+  </si>
+  <si>
+    <t>Adipocytes</t>
+  </si>
+  <si>
+    <t>ADIPOQ,ANKRD29,CAVIN2,CLEC14A,EGFL7,HOXD8,HOXD9,KDR,LPL,MMRN2,NDUFA4L2,NOSTRIN,PDCD1LG2,PDE4A,RAMP2,RAPGEF3,SOX18,TFAP2A,TIMP4,UCP1,,</t>
+  </si>
+  <si>
+    <t>Basal</t>
+  </si>
+  <si>
+    <t>ACTG2,C6orf132,DSP,DST,GLIPR1,KARS,KLF5,KRT14,KRT5,KRT6B,MYLK,NARS,OXTR,PTN,TRAF4,TUBB2B,</t>
+  </si>
+  <si>
+    <t>Breast Myoepithelial Cells</t>
+  </si>
+  <si>
+    <t>Cancer</t>
+  </si>
+  <si>
+    <t>ABCC11,APOBEC3B,CAV1,CCND1,CEACAM6,CENPF,CXCL12,EGFR,ERBB2,KIT,KRT7,LDHB,LRRC15,MDM2,MKI67,PCLAF,PTGDS,RUNX1,S100A4,SCD,SFRP1,SNAI1,TACSTD2,TCF4,TOP2A,ZEB1,ZEB2,WNT7b,WNT5A,WNT4,TNFSF11,TNFRSF11A,VTCN1,TLE3,SP1,GRHL2,TFAP2C,TP63,NFATC1,SMAD3,CDH2,CTCF,MMP19,FAP,LOX,SMAD2,ASPN,OVOL2,LHX2,GRHL1,IDO1,ERBB2_exon15_16,ERBB2_exon15_17,ERBB2_exon16_17,</t>
+  </si>
+  <si>
+    <t>Breast cancer cells</t>
+  </si>
+  <si>
+    <t>ABCC11,APOBEC3B,CAV1,CCND1,CEACAM6,CENPF,CXCL12,EGFR,ERBB2,KIT,KRT7,LDHB,LRRC15,MDM2,MKI67,PCLAF,PTGDS,RUNX1,S100A4,SCD,SFRP1,SNAI1,TACSTD2,TCF4,TOP2A,ZEB1,ZEB2,WNT7b,WNT5A,WNT4,TNFSF11,TNFRSF11A,VTCN1,TLE3,SP1,GRHL2,TFAP2C,TP63,NFATC1,SMAD3,CDH2,CTCF,MMP19,FAP,LOX,SMAD2,ASPN,OVOL2,LHX2,GRHL1,IDO1,ERBB2_exon15_16,ERBB2_exon15_17,ERBB2_exon16_17,,,,,,,</t>
+  </si>
+  <si>
+    <t>ACTA2,AKR1C1,AKR1C3,ANGPT2,AQP1,AVPR1A,CCL8,CD93,CRISPLD2,CTH,ESM1,FOXC2,FSTL3,LARS,MYH11,PDGFRB,PDK4,PECAM1,SOX17,SSTR2,STC1,THAP2,TIFA,VWF,WARS,</t>
+  </si>
+  <si>
+    <t>Endothelial cells</t>
+  </si>
+  <si>
+    <t>Epithelial</t>
+  </si>
+  <si>
+    <t>ADAM9,AGR3,ALDH1A3,ANKRD30A,AQP3,AR,BACE2,C15orf48,C5orf46,CCDC6,CD9,CDC42EP1,CDH1,CLIC6,CTTN,DAPK3,DMKN,DNTTIP1,DSC2,EIF4EBP1,ENAH,EPCAM,ESR1,FASN,FLNB,FOXA1,GATA3,HMGA1,HOOK2,HPX,JUP,KRT23,KRT8,LYPD3,MLPH,MUC6,MYBPC1,MYO5B,OCIAD2,OPRPN,PGR,PIGR,PTRHD1,QARS,S100A14,SCGB2A1,SDC4,SERHL2,SERPINA3,SH3YL1,SLC25A37,SLC5A6,SMS,SQLE,SRPK1,SVIL,TCIM,TMEM147,TOMM7,TPD52,TRAPPC3,USP53,ZNF562,KRT19,IL33,PRLR,SLPI,CITED1,CLU,ERBB3,ADAM10,</t>
+  </si>
+  <si>
+    <t>Breast Glandular cells</t>
+  </si>
+  <si>
+    <t>ANKRD30A,EPCAM,KRT8,MUC6,MYBPC1,ADAM9,AGR3,ALDH1A3,AQP3,BACE2,C15orf48,C5orf46,CCDC6,CD9,CDC42EP1,CDH1,CLIC6,CTTN,DAPK3,DMKN,DNTTIP1,DSC2,EIF4EBP1,ENAH,FASN,FLNB,HMGA1,HOOK2,HPX,JUP,KRT23,LYPD3,MLPH,MYO5B,OCIAD2,OPRPN,PTRHD1,QARS,S100A14,SCGB2A1,SDC4,SERHL2,SERPINA3,SH3YL1,SLC25A37,SLC5A6,SMS,SQLE,SRPK1,SVIL,TCIM,TMEM147,TOMM7,TPD52,TRAPPC3,USP53,ZNF562,KRT19,IL33,ERBB3,ADAM10</t>
+  </si>
+  <si>
+    <t>Hormone sensing</t>
+  </si>
+  <si>
+    <t>ANKRD30A,EPCAM,KRT8,AR,ESR1,FOXA1,GATA3,PGR,PIGR,PRLR,SLPI,CITED1,CLU,</t>
+  </si>
+  <si>
+    <t>Immune Cells</t>
+  </si>
+  <si>
+    <t>ADGRE5,AIF1,ANKRD28,APOBEC3A,APOC1,BANK1,BASP1,C1QA,C1QC,C2orf42,CCL5,CCPG1,CCR7,CD14,CD163,CD19,CD247,CD27,CD274,CD3E,CD3G,CD4,CD68,CD69,CD79A,CD79B,CD80,CD83,CD86,CD8A,CEACAM8,CLEC9A,CLECL1,CPA3,CTLA4,CTSG,CX3CR1,CXCL16,CXCL5,CXCR4,CYTIP,DNAAF1,DUSP2,DUSP5,ERN1,FAM107B,FAM49A,FCER1A,FCER1G,FCGR3A,FGL2,FOXP3,GJB2,GNLY,GPR183,GZMA,GZMK,HAVCR2,IGSF6,IL2RA,IL2RG,IL3RA,IL7R,ITGAX,ITM2C,KLRB1,KLRC1,KLRD1,KLRF1,LAG3,LGALSL,LILRA4,LPXN,LTB,LY86,LYZ,MAP3K8,MNDA,MRC1,MS4A1,MZB1,NCAM1,NKG7,PDCD1,PELI1,PLD4,PPARG,PRDM1,PRF1,PTPRC,RAB30,RHOH,RORC,RTKN2,S100A8,SEC11C,SEC24A,SELL,SERPINB9,SLAMF1,SLAMF7,SMAP2,SPIB,TCF7,TCL1A,TENT5C,TIGIT,TNFRSF17,TPSAB1,TRAC,TRIB1,TUBA4A,VOPP1,IL1RL1,CXCR3,CXCR6,STAT1,IFNGR1,LCK,ICOS,CXCL10,CD28,IL2RB,CXCL9,CD2 ,IFNG,S100A10,IL12RB2,TNFRSF4,</t>
+  </si>
+  <si>
+    <t>Stromal</t>
+  </si>
+  <si>
+    <t>CCDC80,DPT,FBLN1,IGF1,LUM,MMP1,MMP12,MMP2,PDGFRA,PIM1,POSTN,SFRP4,TAC1,TCEAL7,VIM,</t>
+  </si>
+  <si>
+    <t>B cells</t>
+  </si>
+  <si>
+    <t>PTPRC,ANKRD28,APOBEC3A,BANK1,C2orf42,CCPG1,CD19,CD27,CD79A,CD79B,CLECL1,DNAAF1,DUSP5,ERN1,FAM107B,ITM2C,LGALSL,MS4A1,MZB1,PELI1,RAB30,SEC11C,SLAMF1,SLAMF7,TCL1A,TRIB1,VOPP1,</t>
+  </si>
+  <si>
+    <t>Dendritic cells</t>
+  </si>
+  <si>
+    <t>PTPRC,ADGRE5,CD83,CLEC9A,FCER1A,IL2RG,IL3RA,ITGAX,LILRA4,SPIB,</t>
+  </si>
+  <si>
+    <t>Macrophage</t>
+  </si>
+  <si>
+    <t>PTPRC,AIF1,APOC1,BASP1,C1QA,C1QC,CD163,CD68,CD80,CD86,CX3CR1,CXCL16,CXCL5,FAM49A,FGL2,GJB2,IGSF6,LPXN,LY86,LYZ,MAP3K8,MNDA,MRC1,PLD4,PPARG,SEC24A,SERPINB9,IL1RL1,IFNGR1,CXCL9,S100A10,</t>
+  </si>
+  <si>
+    <t>Mast cell</t>
+  </si>
+  <si>
+    <t>CPA3,CTSG,TPSAB1</t>
+  </si>
+  <si>
+    <t>Monocytes</t>
+  </si>
+  <si>
+    <t>CD14,FCGR3A,S100A8,CXCR3,PTPRC,</t>
+  </si>
+  <si>
+    <t>NK Cells</t>
+  </si>
+  <si>
+    <t>CD247,FCER1G,GNLY,KLRD1,KLRF1,NCAM1,NKG7,PRF1,CXCR6,PTPRC,</t>
+  </si>
+  <si>
+    <t>T cells</t>
+  </si>
+  <si>
+    <t>CCL5,CCR7,CD274,CD3E,CD3G,CD4,CD69,CD8A,CTLA4,CXCR4,CYTIP,DUSP2,FOXP3,GPR183,GZMA,GZMK,HAVCR2,IL2RA,IL7R,KLRB1,KLRC1,LAG3,LTB,PDCD1,PRDM1,RHOH,RORC,RTKN2,SELL,SMAP2,TCF7,TENT5C,TIGIT,TRAC,TUBA4A,STAT1,LCK,ICOS,CXCL10,CD28,IL2RB,CD2 ,IFNG,IL12RB2,TNFRSF4,</t>
+  </si>
+  <si>
+    <t>Endothelia</t>
+  </si>
+  <si>
+    <t>Fibroblast</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -974,7 +1094,27 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="4">
+  <dxfs count="6">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -1325,22 +1465,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E151"/>
+  <dimension ref="A1:E172"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A133" zoomScale="144" zoomScaleNormal="144" workbookViewId="0">
-      <selection activeCell="A87" sqref="A87:A151"/>
+    <sheetView tabSelected="1" topLeftCell="A73" zoomScale="144" zoomScaleNormal="144" workbookViewId="0">
+      <selection activeCell="A81" sqref="A81"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="35.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="214.7109375" customWidth="1"/>
-    <col min="4" max="4" width="27.140625" customWidth="1"/>
+    <col min="1" max="1" width="13.83203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="35.83203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="214.6640625" customWidth="1"/>
+    <col min="4" max="4" width="27.1640625" customWidth="1"/>
     <col min="5" max="5" width="39" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1357,7 +1497,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>5</v>
       </c>
@@ -1372,7 +1512,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>5</v>
       </c>
@@ -1387,7 +1527,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>5</v>
       </c>
@@ -1402,7 +1542,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>5</v>
       </c>
@@ -1417,7 +1557,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
         <v>5</v>
       </c>
@@ -1434,7 +1574,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
         <v>5</v>
       </c>
@@ -1451,7 +1591,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
         <v>5</v>
       </c>
@@ -1468,7 +1608,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="9" spans="1:5">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
         <v>5</v>
       </c>
@@ -1483,7 +1623,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="10" spans="1:5">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
         <v>5</v>
       </c>
@@ -1498,7 +1638,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="11" spans="1:5">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
         <v>5</v>
       </c>
@@ -1515,7 +1655,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="12" spans="1:5">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
         <v>5</v>
       </c>
@@ -1532,7 +1672,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="13" spans="1:5">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
         <v>5</v>
       </c>
@@ -1549,7 +1689,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="14" spans="1:5">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
         <v>5</v>
       </c>
@@ -1564,7 +1704,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:5">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
         <v>5</v>
       </c>
@@ -1579,7 +1719,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="16" spans="1:5">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
         <v>5</v>
       </c>
@@ -1594,7 +1734,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="17" spans="1:5">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
         <v>5</v>
       </c>
@@ -1611,7 +1751,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="18" spans="1:5">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
         <v>5</v>
       </c>
@@ -1626,7 +1766,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="19" spans="1:5">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
         <v>5</v>
       </c>
@@ -1641,7 +1781,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="20" spans="1:5">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
         <v>5</v>
       </c>
@@ -1656,7 +1796,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="21" spans="1:5">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
         <v>5</v>
       </c>
@@ -1671,7 +1811,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="22" spans="1:5">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22" s="2" t="s">
         <v>5</v>
       </c>
@@ -1688,7 +1828,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="23" spans="1:5">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="s">
         <v>5</v>
       </c>
@@ -1705,7 +1845,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="24" spans="1:5">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
         <v>5</v>
       </c>
@@ -1722,7 +1862,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="25" spans="1:5">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A25" s="2" t="s">
         <v>5</v>
       </c>
@@ -1739,7 +1879,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="26" spans="1:5">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A26" s="2" t="s">
         <v>5</v>
       </c>
@@ -1754,7 +1894,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="27" spans="1:5">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A27" s="2" t="s">
         <v>5</v>
       </c>
@@ -1769,7 +1909,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="28" spans="1:5">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A28" s="2" t="s">
         <v>5</v>
       </c>
@@ -1784,7 +1924,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="29" spans="1:5">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A29" s="2" t="s">
         <v>5</v>
       </c>
@@ -1801,7 +1941,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="30" spans="1:5">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A30" s="2" t="s">
         <v>5</v>
       </c>
@@ -1816,7 +1956,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="31" spans="1:5">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A31" s="2" t="s">
         <v>5</v>
       </c>
@@ -1831,7 +1971,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="32" spans="1:5">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A32" s="2" t="s">
         <v>5</v>
       </c>
@@ -1846,7 +1986,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="33" spans="1:5">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A33" s="2" t="s">
         <v>5</v>
       </c>
@@ -1861,7 +2001,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="34" spans="1:5">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A34" s="2" t="s">
         <v>5</v>
       </c>
@@ -1876,7 +2016,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="35" spans="1:5">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A35" s="4" t="s">
         <v>112</v>
       </c>
@@ -1887,7 +2027,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="36" spans="1:5">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A36" s="4" t="s">
         <v>112</v>
       </c>
@@ -1898,7 +2038,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="37" spans="1:5">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A37" s="4" t="s">
         <v>112</v>
       </c>
@@ -1909,7 +2049,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="38" spans="1:5">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A38" s="4" t="s">
         <v>112</v>
       </c>
@@ -1920,7 +2060,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="39" spans="1:5">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A39" s="4" t="s">
         <v>112</v>
       </c>
@@ -1931,7 +2071,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="40" spans="1:5">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A40" s="4" t="s">
         <v>112</v>
       </c>
@@ -1942,18 +2082,18 @@
         <v>120</v>
       </c>
     </row>
-    <row r="41" spans="1:5">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A41" s="4" t="s">
         <v>112</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C41" s="4" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="42" spans="1:5">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A42" s="4" t="s">
         <v>112</v>
       </c>
@@ -1964,7 +2104,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="43" spans="1:5" ht="20.25">
+    <row r="43" spans="1:5" ht="20" x14ac:dyDescent="0.2">
       <c r="A43" s="4" t="s">
         <v>194</v>
       </c>
@@ -1975,7 +2115,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="44" spans="1:5" ht="30">
+    <row r="44" spans="1:5" ht="32" x14ac:dyDescent="0.2">
       <c r="A44" s="4" t="s">
         <v>194</v>
       </c>
@@ -1986,7 +2126,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="45" spans="1:5" ht="20.25">
+    <row r="45" spans="1:5" ht="20" x14ac:dyDescent="0.2">
       <c r="A45" s="4" t="s">
         <v>194</v>
       </c>
@@ -1997,7 +2137,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="46" spans="1:5">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A46" s="4" t="s">
         <v>194</v>
       </c>
@@ -2008,7 +2148,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="47" spans="1:5">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A47" s="4" t="s">
         <v>194</v>
       </c>
@@ -2019,7 +2159,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="48" spans="1:5">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A48" s="4" t="s">
         <v>194</v>
       </c>
@@ -2030,7 +2170,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="49" spans="1:3">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A49" s="4" t="s">
         <v>194</v>
       </c>
@@ -2041,7 +2181,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="50" spans="1:3">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A50" s="4" t="s">
         <v>194</v>
       </c>
@@ -2052,7 +2192,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="51" spans="1:3">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A51" s="4" t="s">
         <v>194</v>
       </c>
@@ -2063,7 +2203,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="52" spans="1:3">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A52" s="4" t="s">
         <v>194</v>
       </c>
@@ -2074,7 +2214,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="53" spans="1:3">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A53" s="4" t="s">
         <v>194</v>
       </c>
@@ -2085,7 +2225,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="54" spans="1:3">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A54" s="4" t="s">
         <v>194</v>
       </c>
@@ -2096,7 +2236,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="55" spans="1:3">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A55" s="4" t="s">
         <v>194</v>
       </c>
@@ -2107,7 +2247,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="56" spans="1:3">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A56" s="4" t="s">
         <v>194</v>
       </c>
@@ -2118,7 +2258,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="57" spans="1:3">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A57" s="4" t="s">
         <v>194</v>
       </c>
@@ -2129,7 +2269,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="58" spans="1:3">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A58" s="4" t="s">
         <v>194</v>
       </c>
@@ -2140,7 +2280,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="59" spans="1:3">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A59" s="4" t="s">
         <v>194</v>
       </c>
@@ -2151,7 +2291,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="60" spans="1:3">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A60" s="4" t="s">
         <v>194</v>
       </c>
@@ -2162,7 +2302,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="61" spans="1:3">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A61" s="4" t="s">
         <v>194</v>
       </c>
@@ -2173,7 +2313,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="62" spans="1:3">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A62" s="4" t="s">
         <v>194</v>
       </c>
@@ -2184,7 +2324,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="63" spans="1:3">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A63" s="4" t="s">
         <v>194</v>
       </c>
@@ -2195,7 +2335,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="64" spans="1:3">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A64" s="4" t="s">
         <v>194</v>
       </c>
@@ -2206,7 +2346,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="65" spans="1:3">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A65" s="4" t="s">
         <v>194</v>
       </c>
@@ -2217,7 +2357,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="66" spans="1:3">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A66" s="4" t="s">
         <v>194</v>
       </c>
@@ -2228,7 +2368,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="67" spans="1:3">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A67" s="4" t="s">
         <v>194</v>
       </c>
@@ -2239,7 +2379,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="68" spans="1:3">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A68" s="4" t="s">
         <v>194</v>
       </c>
@@ -2250,7 +2390,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="69" spans="1:3">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A69" s="4" t="s">
         <v>194</v>
       </c>
@@ -2261,7 +2401,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="70" spans="1:3">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A70" s="4" t="s">
         <v>194</v>
       </c>
@@ -2272,7 +2412,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="71" spans="1:3">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A71" s="4" t="s">
         <v>194</v>
       </c>
@@ -2283,7 +2423,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="72" spans="1:3">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A72" s="4" t="s">
         <v>194</v>
       </c>
@@ -2294,7 +2434,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="73" spans="1:3">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A73" s="4" t="s">
         <v>194</v>
       </c>
@@ -2305,7 +2445,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="74" spans="1:3">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A74" s="4" t="s">
         <v>194</v>
       </c>
@@ -2316,7 +2456,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="75" spans="1:3">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A75" s="4" t="s">
         <v>194</v>
       </c>
@@ -2327,7 +2467,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="76" spans="1:3">
+    <row r="76" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A76" s="4" t="s">
         <v>194</v>
       </c>
@@ -2338,844 +2478,1081 @@
         <v>193</v>
       </c>
     </row>
-    <row r="77" spans="1:3">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
+        <v>284</v>
+      </c>
+      <c r="B77" t="s">
         <v>196</v>
       </c>
-      <c r="B77" t="s">
+      <c r="C77" t="s">
         <v>197</v>
       </c>
-      <c r="C77" t="s">
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A78" t="s">
+        <v>284</v>
+      </c>
+      <c r="B78" t="s">
+        <v>203</v>
+      </c>
+      <c r="C78" s="4" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A79" t="s">
+        <v>284</v>
+      </c>
+      <c r="B79" t="s">
+        <v>202</v>
+      </c>
+      <c r="C79" s="4" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A80" t="s">
+        <v>284</v>
+      </c>
+      <c r="B80" t="s">
+        <v>199</v>
+      </c>
+      <c r="C80" s="4" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="78" spans="1:3">
-      <c r="A78" t="s">
-        <v>196</v>
-      </c>
-      <c r="B78" t="s">
+    <row r="81" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A81" t="s">
+        <v>284</v>
+      </c>
+      <c r="B81" t="s">
+        <v>205</v>
+      </c>
+      <c r="C81" t="s">
         <v>204</v>
       </c>
-      <c r="C78" s="4" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="79" spans="1:3">
-      <c r="A79" t="s">
-        <v>196</v>
-      </c>
-      <c r="B79" t="s">
-        <v>203</v>
-      </c>
-      <c r="C79" s="4" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="80" spans="1:3">
-      <c r="A80" t="s">
-        <v>196</v>
-      </c>
-      <c r="B80" t="s">
-        <v>200</v>
-      </c>
-      <c r="C80" s="4" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="81" spans="1:3">
-      <c r="A81" t="s">
-        <v>196</v>
-      </c>
-      <c r="B81" t="s">
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A82" t="s">
         <v>206</v>
       </c>
-      <c r="C81" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="82" spans="1:3">
-      <c r="A82" t="s">
+      <c r="B82" t="s">
         <v>207</v>
       </c>
-      <c r="B82" t="s">
-        <v>208</v>
-      </c>
       <c r="C82" s="4" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="83" spans="1:3">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B83" t="s">
         <v>101</v>
       </c>
       <c r="C83" s="4" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="84" spans="1:3">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B84" t="s">
         <v>4</v>
       </c>
       <c r="C84" s="4" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="85" spans="1:3">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B85" t="s">
         <v>195</v>
       </c>
       <c r="C85" s="4" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A86" t="s">
+        <v>206</v>
+      </c>
+      <c r="B86" t="s">
         <v>212</v>
       </c>
-    </row>
-    <row r="86" spans="1:3">
-      <c r="A86" t="s">
-        <v>207</v>
-      </c>
-      <c r="B86" t="s">
+      <c r="C86" s="8" t="s">
         <v>213</v>
       </c>
-      <c r="C86" s="8" t="s">
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A87" t="s">
+        <v>215</v>
+      </c>
+      <c r="B87" t="s">
+        <v>216</v>
+      </c>
+      <c r="C87" s="4" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="87" spans="1:3">
-      <c r="A87" t="s">
-        <v>216</v>
-      </c>
-      <c r="B87" t="s">
+    <row r="88" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A88" t="s">
+        <v>215</v>
+      </c>
+      <c r="B88" t="s">
         <v>217</v>
       </c>
-      <c r="C87" s="4" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="88" spans="1:3">
-      <c r="A88" t="s">
-        <v>216</v>
-      </c>
-      <c r="B88" t="s">
+      <c r="C88" s="4" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A89" t="s">
+        <v>215</v>
+      </c>
+      <c r="B89" t="s">
         <v>218</v>
       </c>
-      <c r="C88" s="4" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="89" spans="1:3">
-      <c r="A89" t="s">
-        <v>216</v>
-      </c>
-      <c r="B89" t="s">
+      <c r="C89" s="8" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" ht="20" x14ac:dyDescent="0.2">
+      <c r="A90" t="s">
+        <v>215</v>
+      </c>
+      <c r="B90" t="s">
         <v>219</v>
-      </c>
-      <c r="C89" s="8" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="90" spans="1:3" ht="20.25">
-      <c r="A90" t="s">
-        <v>216</v>
-      </c>
-      <c r="B90" t="s">
-        <v>220</v>
       </c>
       <c r="C90" s="6" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="91" spans="1:3" ht="30">
+    <row r="91" spans="1:3" ht="32" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B91" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C91" s="7" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="92" spans="1:3" ht="20.25">
+    <row r="92" spans="1:3" ht="20" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B92" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C92" s="6" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="93" spans="1:3">
+    <row r="93" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B93" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C93" s="4" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="94" spans="1:3">
+    <row r="94" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B94" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C94" s="4" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="95" spans="1:3">
+    <row r="95" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B95" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C95" s="4" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="96" spans="1:3">
+    <row r="96" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B96" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C96" s="4" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="97" spans="1:3">
+    <row r="97" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B97" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C97" s="4" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="98" spans="1:3">
+    <row r="98" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B98" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C98" s="4" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="99" spans="1:3">
+    <row r="99" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B99" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C99" s="4" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="100" spans="1:3">
+    <row r="100" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B100" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C100" s="4" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="101" spans="1:3">
+    <row r="101" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B101" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C101" s="4" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="102" spans="1:3">
+    <row r="102" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B102" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C102" s="4" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="103" spans="1:3">
+    <row r="103" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B103" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C103" s="4" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="104" spans="1:3">
+    <row r="104" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B104" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C104" s="4" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="105" spans="1:3">
+    <row r="105" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B105" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C105" s="4" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="106" spans="1:3">
+    <row r="106" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B106" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C106" s="4" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="107" spans="1:3">
+    <row r="107" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B107" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C107" s="4" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="108" spans="1:3">
+    <row r="108" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B108" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C108" s="4" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="109" spans="1:3">
+    <row r="109" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B109" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C109" s="4" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="110" spans="1:3">
+    <row r="110" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B110" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C110" s="4" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="111" spans="1:3">
+    <row r="111" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B111" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C111" s="4" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="112" spans="1:3">
+    <row r="112" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B112" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C112" s="4" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="113" spans="1:3">
+    <row r="113" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B113" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C113" s="4" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="114" spans="1:3">
+    <row r="114" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B114" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C114" s="4" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="115" spans="1:3">
+    <row r="115" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B115" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C115" s="4" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="116" spans="1:3">
+    <row r="116" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B116" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C116" s="4" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="117" spans="1:3">
+    <row r="117" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B117" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C117" s="4" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="118" spans="1:3">
+    <row r="118" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B118" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C118" s="4" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="119" spans="1:3">
+    <row r="119" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C119" s="2" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="120" spans="1:3">
+    <row r="120" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C120" s="2" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="121" spans="1:3">
+    <row r="121" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C121" s="2" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="122" spans="1:3">
+    <row r="122" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C122" s="2" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="123" spans="1:3">
+    <row r="123" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C123" s="2" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="124" spans="1:3">
+    <row r="124" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C124" s="2" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="125" spans="1:3">
+    <row r="125" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C125" s="2" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="126" spans="1:3">
+    <row r="126" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C126" s="2" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="127" spans="1:3">
+    <row r="127" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C127" s="2" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="128" spans="1:3">
+    <row r="128" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C128" s="2" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="129" spans="1:3">
+    <row r="129" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C129" s="2" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="130" spans="1:3">
+    <row r="130" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C130" s="2" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="131" spans="1:3">
+    <row r="131" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C131" s="2" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="132" spans="1:3">
+    <row r="132" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C132" s="2" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="133" spans="1:3">
+    <row r="133" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C133" s="2" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="134" spans="1:3">
+    <row r="134" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C134" s="2" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="135" spans="1:3">
+    <row r="135" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C135" s="3" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="136" spans="1:3">
+    <row r="136" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C136" s="3" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="137" spans="1:3">
+    <row r="137" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C137" s="2" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="138" spans="1:3">
+    <row r="138" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="C138" s="3" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="139" spans="1:3">
+    <row r="139" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="C139" s="3" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="140" spans="1:3">
+    <row r="140" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C140" s="3" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="141" spans="1:3">
+    <row r="141" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B141" s="2" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="C141" s="3" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="142" spans="1:3">
+    <row r="142" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="C142" s="3" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="143" spans="1:3">
+    <row r="143" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B143" s="2" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="C143" s="3" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="144" spans="1:3">
+    <row r="144" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B144" s="2" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C144" s="3" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="145" spans="1:3">
+    <row r="145" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B145" s="2" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C145" s="3" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="146" spans="1:3">
+    <row r="146" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A146" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B146" s="2" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C146" s="3" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="147" spans="1:3">
+    <row r="147" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A147" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B147" s="2" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="C147" s="3" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="148" spans="1:3">
+    <row r="148" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A148" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B148" s="2" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C148" s="3" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="149" spans="1:3">
+    <row r="149" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A149" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B149" s="2" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="C149" s="3" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="150" spans="1:3">
+    <row r="150" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A150" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B150" s="2" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="C150" s="4" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="151" spans="1:3">
+    <row r="151" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A151" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B151" s="2" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="C151" s="3" t="s">
         <v>65</v>
       </c>
     </row>
+    <row r="152" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A152" t="s">
+        <v>281</v>
+      </c>
+      <c r="B152" t="s">
+        <v>282</v>
+      </c>
+      <c r="C152" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="153" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A153" t="s">
+        <v>284</v>
+      </c>
+      <c r="B153" t="s">
+        <v>285</v>
+      </c>
+      <c r="C153" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="154" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A154" t="s">
+        <v>281</v>
+      </c>
+      <c r="B154" t="s">
+        <v>287</v>
+      </c>
+      <c r="C154" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="155" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A155" t="s">
+        <v>284</v>
+      </c>
+      <c r="B155" t="s">
+        <v>289</v>
+      </c>
+      <c r="C155" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="156" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A156" t="s">
+        <v>281</v>
+      </c>
+      <c r="B156" t="s">
+        <v>290</v>
+      </c>
+      <c r="C156" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="157" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A157" t="s">
+        <v>284</v>
+      </c>
+      <c r="B157" t="s">
+        <v>292</v>
+      </c>
+      <c r="C157" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="158" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A158" t="s">
+        <v>281</v>
+      </c>
+      <c r="B158" t="s">
+        <v>320</v>
+      </c>
+      <c r="C158" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="159" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A159" t="s">
+        <v>284</v>
+      </c>
+      <c r="B159" t="s">
+        <v>295</v>
+      </c>
+      <c r="C159" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="160" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A160" t="s">
+        <v>281</v>
+      </c>
+      <c r="B160" t="s">
+        <v>296</v>
+      </c>
+      <c r="C160" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="161" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A161" t="s">
+        <v>284</v>
+      </c>
+      <c r="B161" t="s">
+        <v>298</v>
+      </c>
+      <c r="C161" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="162" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A162" t="s">
+        <v>284</v>
+      </c>
+      <c r="B162" t="s">
+        <v>300</v>
+      </c>
+      <c r="C162" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="163" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A163" t="s">
+        <v>281</v>
+      </c>
+      <c r="B163" t="s">
+        <v>302</v>
+      </c>
+      <c r="C163" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="164" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A164" t="s">
+        <v>281</v>
+      </c>
+      <c r="B164" t="s">
+        <v>304</v>
+      </c>
+      <c r="C164" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="165" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A165" t="s">
+        <v>284</v>
+      </c>
+      <c r="B165" t="s">
+        <v>321</v>
+      </c>
+      <c r="C165" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="166" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A166" t="s">
+        <v>284</v>
+      </c>
+      <c r="B166" t="s">
+        <v>306</v>
+      </c>
+      <c r="C166" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="167" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A167" t="s">
+        <v>284</v>
+      </c>
+      <c r="B167" t="s">
+        <v>308</v>
+      </c>
+      <c r="C167" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="168" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A168" t="s">
+        <v>284</v>
+      </c>
+      <c r="B168" t="s">
+        <v>310</v>
+      </c>
+      <c r="C168" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="169" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A169" t="s">
+        <v>284</v>
+      </c>
+      <c r="B169" t="s">
+        <v>312</v>
+      </c>
+      <c r="C169" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="170" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A170" t="s">
+        <v>284</v>
+      </c>
+      <c r="B170" t="s">
+        <v>314</v>
+      </c>
+      <c r="C170" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="171" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A171" t="s">
+        <v>284</v>
+      </c>
+      <c r="B171" t="s">
+        <v>316</v>
+      </c>
+      <c r="C171" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="172" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A172" t="s">
+        <v>284</v>
+      </c>
+      <c r="B172" t="s">
+        <v>318</v>
+      </c>
+      <c r="C172" t="s">
+        <v>319</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:E1" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
-  <conditionalFormatting sqref="B85:B86 B1:B83 B152:B1048576">
+  <conditionalFormatting sqref="B173:B1048576 B85:B86 B1:B83">
+    <cfRule type="duplicateValues" dxfId="5" priority="6"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B88:B89">
+    <cfRule type="duplicateValues" dxfId="4" priority="5"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B90:B118">
     <cfRule type="duplicateValues" dxfId="3" priority="4"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B88:B89">
+  <conditionalFormatting sqref="B119:B151">
     <cfRule type="duplicateValues" dxfId="2" priority="3"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B90:B118">
-    <cfRule type="duplicateValues" dxfId="1" priority="2"/>
+  <conditionalFormatting sqref="B1:B1048576">
+    <cfRule type="duplicateValues" dxfId="1" priority="1"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B119:B151">
-    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
+  <conditionalFormatting sqref="B152:B172">
+    <cfRule type="duplicateValues" dxfId="0" priority="9"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/ScTypeDB_full.xlsx
+++ b/ScTypeDB_full.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jdg67/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5D1A9A9-BEAA-1E4C-8613-88D1CDEADA78}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{377C8BE3-5769-E247-967B-FFB68E310CD9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16400" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="563" uniqueCount="322">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="563" uniqueCount="323">
   <si>
     <t>tissueType</t>
   </si>
@@ -995,6 +995,9 @@
   </si>
   <si>
     <t>Fibroblast</t>
+  </si>
+  <si>
+    <t>XeniumEpi</t>
   </si>
 </sst>
 </file>
@@ -1467,8 +1470,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E172"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A73" zoomScale="144" zoomScaleNormal="144" workbookViewId="0">
-      <selection activeCell="A81" sqref="A81"/>
+    <sheetView tabSelected="1" topLeftCell="A65" zoomScale="144" zoomScaleNormal="144" workbookViewId="0">
+      <selection activeCell="A78" sqref="A78:A81"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2480,7 +2483,7 @@
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
-        <v>284</v>
+        <v>322</v>
       </c>
       <c r="B77" t="s">
         <v>196</v>
@@ -2491,7 +2494,7 @@
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
-        <v>284</v>
+        <v>322</v>
       </c>
       <c r="B78" t="s">
         <v>203</v>
@@ -2502,7 +2505,7 @@
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
-        <v>284</v>
+        <v>322</v>
       </c>
       <c r="B79" t="s">
         <v>202</v>
@@ -2513,7 +2516,7 @@
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
-        <v>284</v>
+        <v>322</v>
       </c>
       <c r="B80" t="s">
         <v>199</v>
@@ -2524,7 +2527,7 @@
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
-        <v>284</v>
+        <v>322</v>
       </c>
       <c r="B81" t="s">
         <v>205</v>
@@ -3536,8 +3539,8 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:E1" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
-  <conditionalFormatting sqref="B173:B1048576 B85:B86 B1:B83">
-    <cfRule type="duplicateValues" dxfId="5" priority="6"/>
+  <conditionalFormatting sqref="B1:B1048576">
+    <cfRule type="duplicateValues" dxfId="5" priority="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B88:B89">
     <cfRule type="duplicateValues" dxfId="4" priority="5"/>
@@ -3548,11 +3551,11 @@
   <conditionalFormatting sqref="B119:B151">
     <cfRule type="duplicateValues" dxfId="2" priority="3"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B1:B1048576">
-    <cfRule type="duplicateValues" dxfId="1" priority="1"/>
+  <conditionalFormatting sqref="B152:B172">
+    <cfRule type="duplicateValues" dxfId="1" priority="9"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B152:B172">
-    <cfRule type="duplicateValues" dxfId="0" priority="9"/>
+  <conditionalFormatting sqref="B173:B1048576 B85:B86 B1:B83">
+    <cfRule type="duplicateValues" dxfId="0" priority="6"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/ScTypeDB_full.xlsx
+++ b/ScTypeDB_full.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jdg67/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{800B4579-B019-5C40-8255-060704C7DAFA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88CEFFC8-A6E5-B748-84F3-9D2C6F3DD146}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16080" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="278" uniqueCount="194">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="275" uniqueCount="193">
   <si>
     <t>tissueType</t>
   </si>
@@ -596,9 +596,6 @@
   </si>
   <si>
     <t>HormoneSensing_Khaled</t>
-  </si>
-  <si>
-    <t>Erythrocytes</t>
   </si>
   <si>
     <t>Dlk1,Sca1,Mest</t>
@@ -1070,10 +1067,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E77"/>
+  <dimension ref="A1:E76"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="144" zoomScaleNormal="144" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView tabSelected="1" topLeftCell="A12" zoomScale="144" zoomScaleNormal="144" workbookViewId="0">
+      <selection activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1923,10 +1920,10 @@
         <v>168</v>
       </c>
       <c r="B62" s="7" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C62" s="8" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.2">
@@ -1934,21 +1931,21 @@
         <v>168</v>
       </c>
       <c r="B63" s="7" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C63" s="8" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A64" s="2" t="s">
-        <v>168</v>
+      <c r="A64" t="s">
+        <v>157</v>
       </c>
       <c r="B64" s="7" t="s">
-        <v>189</v>
+        <v>158</v>
       </c>
       <c r="C64" s="8" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.2">
@@ -1956,10 +1953,10 @@
         <v>157</v>
       </c>
       <c r="B65" s="7" t="s">
-        <v>158</v>
+        <v>99</v>
       </c>
       <c r="C65" s="8" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.2">
@@ -1967,10 +1964,10 @@
         <v>157</v>
       </c>
       <c r="B66" s="7" t="s">
-        <v>99</v>
+        <v>166</v>
       </c>
       <c r="C66" s="8" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.2">
@@ -1978,10 +1975,10 @@
         <v>157</v>
       </c>
       <c r="B67" s="7" t="s">
-        <v>166</v>
+        <v>156</v>
       </c>
       <c r="C67" s="8" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.2">
@@ -1989,21 +1986,21 @@
         <v>157</v>
       </c>
       <c r="B68" s="7" t="s">
-        <v>156</v>
-      </c>
-      <c r="C68" s="8" t="s">
-        <v>162</v>
+        <v>163</v>
+      </c>
+      <c r="C68" s="7" t="s">
+        <v>164</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A69" t="s">
-        <v>157</v>
-      </c>
-      <c r="B69" s="7" t="s">
-        <v>163</v>
-      </c>
-      <c r="C69" s="7" t="s">
-        <v>164</v>
+      <c r="A69" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="B69" s="8" t="s">
+        <v>111</v>
+      </c>
+      <c r="C69" s="8" t="s">
+        <v>112</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.2">
@@ -2011,10 +2008,10 @@
         <v>110</v>
       </c>
       <c r="B70" s="8" t="s">
-        <v>111</v>
+        <v>64</v>
       </c>
       <c r="C70" s="8" t="s">
-        <v>112</v>
+        <v>121</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.2">
@@ -2022,10 +2019,10 @@
         <v>110</v>
       </c>
       <c r="B71" s="8" t="s">
-        <v>64</v>
+        <v>119</v>
       </c>
       <c r="C71" s="8" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.2">
@@ -2033,10 +2030,10 @@
         <v>110</v>
       </c>
       <c r="B72" s="8" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="C72" s="8" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.2">
@@ -2044,10 +2041,10 @@
         <v>110</v>
       </c>
       <c r="B73" s="8" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C73" s="8" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.2">
@@ -2055,10 +2052,10 @@
         <v>110</v>
       </c>
       <c r="B74" s="8" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C74" s="8" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.2">
@@ -2066,10 +2063,10 @@
         <v>110</v>
       </c>
       <c r="B75" s="8" t="s">
-        <v>115</v>
+        <v>159</v>
       </c>
       <c r="C75" s="8" t="s">
-        <v>118</v>
+        <v>57</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.2">
@@ -2077,20 +2074,9 @@
         <v>110</v>
       </c>
       <c r="B76" s="8" t="s">
-        <v>159</v>
+        <v>122</v>
       </c>
       <c r="C76" s="8" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A77" s="3" t="s">
-        <v>110</v>
-      </c>
-      <c r="B77" s="8" t="s">
-        <v>122</v>
-      </c>
-      <c r="C77" s="8" t="s">
         <v>123</v>
       </c>
     </row>
@@ -2099,14 +2085,14 @@
   <conditionalFormatting sqref="B1:B42 B44:B1048576">
     <cfRule type="duplicateValues" dxfId="3" priority="2"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B78:B90">
-    <cfRule type="duplicateValues" dxfId="2" priority="10"/>
+  <conditionalFormatting sqref="B1:B1048576">
+    <cfRule type="duplicateValues" dxfId="2" priority="1"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B91:B1048576 B68:B77 B1:B42 B44:B66">
-    <cfRule type="duplicateValues" dxfId="1" priority="7"/>
+  <conditionalFormatting sqref="B77:B89">
+    <cfRule type="duplicateValues" dxfId="1" priority="10"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B1:B1048576">
-    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
+  <conditionalFormatting sqref="B90:B1048576 B67:B76 B1:B42 B44:B65">
+    <cfRule type="duplicateValues" dxfId="0" priority="7"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/ScTypeDB_full.xlsx
+++ b/ScTypeDB_full.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jdg67/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88CEFFC8-A6E5-B748-84F3-9D2C6F3DD146}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{0E98B95D-F4F0-4348-9F85-20872BAFE2DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16080" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="275" uniqueCount="193">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="353" uniqueCount="245">
   <si>
     <t>tissueType</t>
   </si>
@@ -608,6 +608,162 @@
   </si>
   <si>
     <t>RegenerationFibroblast</t>
+  </si>
+  <si>
+    <t>XeniumEpi</t>
+  </si>
+  <si>
+    <t>Bystander</t>
+  </si>
+  <si>
+    <t>ANKRD30A,EPCAM,KRT8,AR,ESR1,FOXA1,IL33,KRT19GATA3,PGR,PIGR,PRLR,SLPI,CITED1,CLU,WNT5A,ERBB3,WNT7B,WNT4</t>
+  </si>
+  <si>
+    <t>EpithelialEMTX</t>
+  </si>
+  <si>
+    <t>TP63, SOX2, GRHL1, TFAP2C, ERBB2</t>
+  </si>
+  <si>
+    <t>EarlyHybridEMTX</t>
+  </si>
+  <si>
+    <t>TP63,NFATC1,KLF5,GRHL2,OVOL2,ZEB1</t>
+  </si>
+  <si>
+    <t>LateHybridEMTX</t>
+  </si>
+  <si>
+    <t>SP1,NFATC1,LHX2,CTCF,ZEB1,SMAD2,SMAD3</t>
+  </si>
+  <si>
+    <t>LuminalEpithelial</t>
+  </si>
+  <si>
+    <t>ANKRD30A,EPCAM,KRT8,MUC6,MYBPC1,ADAM9,AGR3,ALDH1A3,AQP3,BACE2,C15orf48,C5orf46,CCDC6,CD9,CDC42EP1,CDH1,CLIC6,CTTN,DAPK3,DMKN,DNTTIP1,DSC2,EIF4EBP1,ENAH,FASN,FLNB,HMGA1,HOOK2,HPX,JUP,KRT23,LYPD3,MLPH,MYO5B,OCIAD2,OPRPN,PTRHD1,QARS,S100A14,SCGB2A1,SDC4,SERHL2,SERPINA3,SH3YL1,SLC25A37,SLC5A6,SMS,SQLE,SRPK1,SVIL,TCIM,TMEM147,TOMM7,TPD52,TRAPPC3,USP53,ZNF562</t>
+  </si>
+  <si>
+    <t>XeniumSimple</t>
+  </si>
+  <si>
+    <t>Adipose</t>
+  </si>
+  <si>
+    <t>ADH1B,ADIPOQ,ANKRD29,CAVIN2,CLEC14A,EGFL7,HOXD8,HOXD9,KDR,LPL,MMRN2,NDUFA4L2,NOSTRIN,PDCD1LG2,PDE4A,RAMP2,RAPGEF3,SOX18,TFAP2A,TIMP4,UCP1,</t>
+  </si>
+  <si>
+    <t>XeniumBreast</t>
+  </si>
+  <si>
+    <t>Adipocytes</t>
+  </si>
+  <si>
+    <t>ADIPOQ,ANKRD29,CAVIN2,CLEC14A,EGFL7,HOXD8,HOXD9,KDR,LPL,MMRN2,NDUFA4L2,NOSTRIN,PDCD1LG2,PDE4A,RAMP2,RAPGEF3,SOX18,TFAP2A,TIMP4,UCP1,,</t>
+  </si>
+  <si>
+    <t>Basal</t>
+  </si>
+  <si>
+    <t>ACTG2,C6orf132,DSP,DST,GLIPR1,KARS,KLF5,KRT14,KRT5,KRT6B,MYLK,NARS,OXTR,PTN,TRAF4,TUBB2B,</t>
+  </si>
+  <si>
+    <t>Breast Myoepithelial Cells</t>
+  </si>
+  <si>
+    <t>Cancer</t>
+  </si>
+  <si>
+    <t>ABCC11,APOBEC3B,CAV1,CCND1,CEACAM6,CENPF,CXCL12,EGFR,ERBB2,KIT,KRT7,LDHB,LRRC15,MDM2,MKI67,PCLAF,PTGDS,RUNX1,S100A4,SCD,SFRP1,SNAI1,TACSTD2,TCF4,TOP2A,ZEB1,ZEB2,WNT7b,WNT5A,WNT4,TNFSF11,TNFRSF11A,VTCN1,TLE3,SP1,GRHL2,TFAP2C,TP63,NFATC1,SMAD3,CDH2,CTCF,MMP19,FAP,LOX,SMAD2,ASPN,OVOL2,LHX2,GRHL1,IDO1,ERBB2_exon15_16,ERBB2_exon15_17,ERBB2_exon16_17,</t>
+  </si>
+  <si>
+    <t>Breast cancer cells</t>
+  </si>
+  <si>
+    <t>ABCC11,APOBEC3B,CAV1,CCND1,CEACAM6,CENPF,CXCL12,EGFR,ERBB2,KIT,KRT7,LDHB,LRRC15,MDM2,MKI67,PCLAF,PTGDS,RUNX1,S100A4,SCD,SFRP1,SNAI1,TACSTD2,TCF4,TOP2A,ZEB1,ZEB2,WNT7b,WNT5A,WNT4,TNFSF11,TNFRSF11A,VTCN1,TLE3,SP1,GRHL2,TFAP2C,TP63,NFATC1,SMAD3,CDH2,CTCF,MMP19,FAP,LOX,SMAD2,ASPN,OVOL2,LHX2,GRHL1,IDO1,ERBB2_exon15_16,ERBB2_exon15_17,ERBB2_exon16_17,,,,,,,</t>
+  </si>
+  <si>
+    <t>Endothelia</t>
+  </si>
+  <si>
+    <t>ACTA2,AKR1C1,AKR1C3,ANGPT2,AQP1,AVPR1A,CCL8,CD93,CRISPLD2,CTH,ESM1,FOXC2,FSTL3,LARS,MYH11,PDGFRB,PDK4,PECAM1,SOX17,SSTR2,STC1,THAP2,TIFA,VWF,WARS,</t>
+  </si>
+  <si>
+    <t>Endothelial cells</t>
+  </si>
+  <si>
+    <t>Epithelial</t>
+  </si>
+  <si>
+    <t>ADAM9,AGR3,ALDH1A3,ANKRD30A,AQP3,AR,BACE2,C15orf48,C5orf46,CCDC6,CD9,CDC42EP1,CDH1,CLIC6,CTTN,DAPK3,DMKN,DNTTIP1,DSC2,EIF4EBP1,ENAH,EPCAM,ESR1,FASN,FLNB,FOXA1,GATA3,HMGA1,HOOK2,HPX,JUP,KRT23,KRT8,LYPD3,MLPH,MUC6,MYBPC1,MYO5B,OCIAD2,OPRPN,PGR,PIGR,PTRHD1,QARS,S100A14,SCGB2A1,SDC4,SERHL2,SERPINA3,SH3YL1,SLC25A37,SLC5A6,SMS,SQLE,SRPK1,SVIL,TCIM,TMEM147,TOMM7,TPD52,TRAPPC3,USP53,ZNF562,KRT19,IL33,PRLR,SLPI,CITED1,CLU,ERBB3,ADAM10,</t>
+  </si>
+  <si>
+    <t>Breast Glandular cells</t>
+  </si>
+  <si>
+    <t>ANKRD30A,EPCAM,KRT8,MUC6,MYBPC1,ADAM9,AGR3,ALDH1A3,AQP3,BACE2,C15orf48,C5orf46,CCDC6,CD9,CDC42EP1,CDH1,CLIC6,CTTN,DAPK3,DMKN,DNTTIP1,DSC2,EIF4EBP1,ENAH,FASN,FLNB,HMGA1,HOOK2,HPX,JUP,KRT23,LYPD3,MLPH,MYO5B,OCIAD2,OPRPN,PTRHD1,QARS,S100A14,SCGB2A1,SDC4,SERHL2,SERPINA3,SH3YL1,SLC25A37,SLC5A6,SMS,SQLE,SRPK1,SVIL,TCIM,TMEM147,TOMM7,TPD52,TRAPPC3,USP53,ZNF562,KRT19,IL33,ERBB3,ADAM10</t>
+  </si>
+  <si>
+    <t>Hormone sensing</t>
+  </si>
+  <si>
+    <t>ANKRD30A,EPCAM,KRT8,AR,ESR1,FOXA1,GATA3,PGR,PIGR,PRLR,SLPI,CITED1,CLU,</t>
+  </si>
+  <si>
+    <t>Immune Cells</t>
+  </si>
+  <si>
+    <t>ADGRE5,AIF1,ANKRD28,APOBEC3A,APOC1,BANK1,BASP1,C1QA,C1QC,C2orf42,CCL5,CCPG1,CCR7,CD14,CD163,CD19,CD247,CD27,CD274,CD3E,CD3G,CD4,CD68,CD69,CD79A,CD79B,CD80,CD83,CD86,CD8A,CEACAM8,CLEC9A,CLECL1,CPA3,CTLA4,CTSG,CX3CR1,CXCL16,CXCL5,CXCR4,CYTIP,DNAAF1,DUSP2,DUSP5,ERN1,FAM107B,FAM49A,FCER1A,FCER1G,FCGR3A,FGL2,FOXP3,GJB2,GNLY,GPR183,GZMA,GZMK,HAVCR2,IGSF6,IL2RA,IL2RG,IL3RA,IL7R,ITGAX,ITM2C,KLRB1,KLRC1,KLRD1,KLRF1,LAG3,LGALSL,LILRA4,LPXN,LTB,LY86,LYZ,MAP3K8,MNDA,MRC1,MS4A1,MZB1,NCAM1,NKG7,PDCD1,PELI1,PLD4,PPARG,PRDM1,PRF1,PTPRC,RAB30,RHOH,RORC,RTKN2,S100A8,SEC11C,SEC24A,SELL,SERPINB9,SLAMF1,SLAMF7,SMAP2,SPIB,TCF7,TCL1A,TENT5C,TIGIT,TNFRSF17,TPSAB1,TRAC,TRIB1,TUBA4A,VOPP1,IL1RL1,CXCR3,CXCR6,STAT1,IFNGR1,LCK,ICOS,CXCL10,CD28,IL2RB,CXCL9,CD2 ,IFNG,S100A10,IL12RB2,TNFRSF4,</t>
+  </si>
+  <si>
+    <t>CCDC80,DPT,FBLN1,IGF1,LUM,MMP1,MMP12,MMP2,PDGFRA,PIM1,POSTN,SFRP4,TAC1,TCEAL7,VIM,</t>
+  </si>
+  <si>
+    <t>B cells</t>
+  </si>
+  <si>
+    <t>PTPRC,ANKRD28,APOBEC3A,BANK1,C2orf42,CCPG1,CD19,CD27,CD79A,CD79B,CLECL1,DNAAF1,DUSP5,ERN1,FAM107B,ITM2C,LGALSL,MS4A1,MZB1,PELI1,RAB30,SEC11C,SLAMF1,SLAMF7,TCL1A,TRIB1,VOPP1,</t>
+  </si>
+  <si>
+    <t>Dendritic cells</t>
+  </si>
+  <si>
+    <t>PTPRC,ADGRE5,CD83,CLEC9A,FCER1A,IL2RG,IL3RA,ITGAX,LILRA4,SPIB,</t>
+  </si>
+  <si>
+    <t>Macrophage</t>
+  </si>
+  <si>
+    <t>PTPRC,AIF1,APOC1,BASP1,C1QA,C1QC,CD163,CD68,CD80,CD86,CX3CR1,CXCL16,CXCL5,FAM49A,FGL2,GJB2,IGSF6,LPXN,LY86,LYZ,MAP3K8,MNDA,MRC1,PLD4,PPARG,SEC24A,SERPINB9,IL1RL1,IFNGR1,CXCL9,S100A10,</t>
+  </si>
+  <si>
+    <t>Mast cell</t>
+  </si>
+  <si>
+    <t>CPA3,CTSG,TPSAB1</t>
+  </si>
+  <si>
+    <t>Monocytes</t>
+  </si>
+  <si>
+    <t>CD14,FCGR3A,S100A8,CXCR3,PTPRC,</t>
+  </si>
+  <si>
+    <t>NK Cells</t>
+  </si>
+  <si>
+    <t>CD247,FCER1G,GNLY,KLRD1,KLRF1,NCAM1,NKG7,PRF1,CXCR6,PTPRC,</t>
+  </si>
+  <si>
+    <t>T cells</t>
+  </si>
+  <si>
+    <t>CCL5,CCR7,CD274,CD3E,CD3G,CD4,CD69,CD8A,CTLA4,CXCR4,CYTIP,DUSP2,FOXP3,GPR183,GZMA,GZMK,HAVCR2,IL2RA,IL7R,KLRB1,KLRC1,LAG3,LTB,PDCD1,PRDM1,RHOH,RORC,RTKN2,SELL,SMAP2,TCF7,TENT5C,TIGIT,TRAC,TUBA4A,STAT1,LCK,ICOS,CXCL10,CD28,IL2RB,CD2 ,IFNG,IL12RB2,TNFRSF4,</t>
+  </si>
+  <si>
+    <t>StromalX</t>
+  </si>
+  <si>
+    <t>FibroblastX</t>
   </si>
 </sst>
 </file>
@@ -716,7 +872,57 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="4">
+  <dxfs count="9">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -1067,10 +1273,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E76"/>
+  <dimension ref="A1:E102"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" zoomScale="144" zoomScaleNormal="144" workbookViewId="0">
-      <selection activeCell="C27" sqref="C27"/>
+    <sheetView tabSelected="1" topLeftCell="A112" zoomScale="144" zoomScaleNormal="144" workbookViewId="0">
+      <selection activeCell="B97" sqref="B97"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2080,19 +2286,317 @@
         <v>123</v>
       </c>
     </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A77" t="s">
+        <v>193</v>
+      </c>
+      <c r="B77" t="s">
+        <v>194</v>
+      </c>
+      <c r="C77" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A78" t="s">
+        <v>193</v>
+      </c>
+      <c r="B78" t="s">
+        <v>196</v>
+      </c>
+      <c r="C78" s="3" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A79" t="s">
+        <v>193</v>
+      </c>
+      <c r="B79" t="s">
+        <v>198</v>
+      </c>
+      <c r="C79" s="3" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A80" t="s">
+        <v>193</v>
+      </c>
+      <c r="B80" t="s">
+        <v>200</v>
+      </c>
+      <c r="C80" s="3" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A81" t="s">
+        <v>193</v>
+      </c>
+      <c r="B81" t="s">
+        <v>202</v>
+      </c>
+      <c r="C81" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A82" t="s">
+        <v>204</v>
+      </c>
+      <c r="B82" t="s">
+        <v>205</v>
+      </c>
+      <c r="C82" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A83" t="s">
+        <v>207</v>
+      </c>
+      <c r="B83" t="s">
+        <v>208</v>
+      </c>
+      <c r="C83" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A84" t="s">
+        <v>204</v>
+      </c>
+      <c r="B84" t="s">
+        <v>210</v>
+      </c>
+      <c r="C84" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A85" t="s">
+        <v>207</v>
+      </c>
+      <c r="B85" t="s">
+        <v>212</v>
+      </c>
+      <c r="C85" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A86" t="s">
+        <v>204</v>
+      </c>
+      <c r="B86" t="s">
+        <v>213</v>
+      </c>
+      <c r="C86" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A87" t="s">
+        <v>207</v>
+      </c>
+      <c r="B87" t="s">
+        <v>215</v>
+      </c>
+      <c r="C87" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A88" t="s">
+        <v>204</v>
+      </c>
+      <c r="B88" t="s">
+        <v>217</v>
+      </c>
+      <c r="C88" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A89" t="s">
+        <v>207</v>
+      </c>
+      <c r="B89" t="s">
+        <v>219</v>
+      </c>
+      <c r="C89" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A90" t="s">
+        <v>204</v>
+      </c>
+      <c r="B90" t="s">
+        <v>220</v>
+      </c>
+      <c r="C90" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A91" t="s">
+        <v>207</v>
+      </c>
+      <c r="B91" t="s">
+        <v>222</v>
+      </c>
+      <c r="C91" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A92" t="s">
+        <v>207</v>
+      </c>
+      <c r="B92" t="s">
+        <v>224</v>
+      </c>
+      <c r="C92" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A93" t="s">
+        <v>204</v>
+      </c>
+      <c r="B93" t="s">
+        <v>226</v>
+      </c>
+      <c r="C93" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A94" t="s">
+        <v>204</v>
+      </c>
+      <c r="B94" t="s">
+        <v>243</v>
+      </c>
+      <c r="C94" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A95" t="s">
+        <v>207</v>
+      </c>
+      <c r="B95" t="s">
+        <v>244</v>
+      </c>
+      <c r="C95" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A96" t="s">
+        <v>207</v>
+      </c>
+      <c r="B96" t="s">
+        <v>229</v>
+      </c>
+      <c r="C96" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A97" t="s">
+        <v>207</v>
+      </c>
+      <c r="B97" t="s">
+        <v>231</v>
+      </c>
+      <c r="C97" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A98" t="s">
+        <v>207</v>
+      </c>
+      <c r="B98" t="s">
+        <v>233</v>
+      </c>
+      <c r="C98" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A99" t="s">
+        <v>207</v>
+      </c>
+      <c r="B99" t="s">
+        <v>235</v>
+      </c>
+      <c r="C99" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A100" t="s">
+        <v>207</v>
+      </c>
+      <c r="B100" t="s">
+        <v>237</v>
+      </c>
+      <c r="C100" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A101" t="s">
+        <v>207</v>
+      </c>
+      <c r="B101" t="s">
+        <v>239</v>
+      </c>
+      <c r="C101" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A102" t="s">
+        <v>207</v>
+      </c>
+      <c r="B102" t="s">
+        <v>241</v>
+      </c>
+      <c r="C102" t="s">
+        <v>242</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:E1" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
-  <conditionalFormatting sqref="B1:B42 B44:B1048576">
-    <cfRule type="duplicateValues" dxfId="3" priority="2"/>
+  <conditionalFormatting sqref="B1:B42 B44:B76 B103:B1048576">
+    <cfRule type="duplicateValues" dxfId="8" priority="7"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B1:B76 B103:B1048576">
+    <cfRule type="duplicateValues" dxfId="7" priority="6"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B103:B1048576 B67:B76 B1:B42 B44:B65">
+    <cfRule type="duplicateValues" dxfId="5" priority="12"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B77:B81">
+    <cfRule type="duplicateValues" dxfId="4" priority="4"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B77:B81">
+    <cfRule type="duplicateValues" dxfId="3" priority="5"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B82:B102">
+    <cfRule type="duplicateValues" dxfId="2" priority="2"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B82:B102">
+    <cfRule type="duplicateValues" dxfId="1" priority="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1:B1048576">
-    <cfRule type="duplicateValues" dxfId="2" priority="1"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B77:B89">
-    <cfRule type="duplicateValues" dxfId="1" priority="10"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B90:B1048576 B67:B76 B1:B42 B44:B65">
-    <cfRule type="duplicateValues" dxfId="0" priority="7"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/ScTypeDB_full.xlsx
+++ b/ScTypeDB_full.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10311"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10512"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jdg67/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jdg67/Desktop/Xenium/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0E98B95D-F4F0-4348-9F85-20872BAFE2DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{E7283392-6396-D54F-94B5-2C165A638415}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16080" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,6 +20,17 @@
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
     </ext>
@@ -28,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="353" uniqueCount="245">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="440" uniqueCount="301">
   <si>
     <t>tissueType</t>
   </si>
@@ -764,6 +775,174 @@
   </si>
   <si>
     <t>FibroblastX</t>
+  </si>
+  <si>
+    <t>XeniumMouseSpecific</t>
+  </si>
+  <si>
+    <t>Fabp4,Adipoq,Lpl,col3a1,Ackr3,Retn</t>
+  </si>
+  <si>
+    <t>Csn3,Csn2,Wfdc18,Rspo1,Lalba,Ltf</t>
+  </si>
+  <si>
+    <t>Cd79a,Cd19,Igkc,Cd74,Ly6d,Jchain,Slc4a1,Slc25a37,Cpa3</t>
+  </si>
+  <si>
+    <t>Lgr5,Fst,Krt17,Lama1,Krt16,Krt13,Them5,Sostdc1,Fxyd4,Col17a1</t>
+  </si>
+  <si>
+    <t>Plbd1,Psmb8</t>
+  </si>
+  <si>
+    <t>Fzd4,Bmp2,Cavin2,Marco,Nts,Eng,Gpihbp1,Ctla2a,Mylk,Plvap,Vwf,Clec14a,Gng11,Aqp7,Tie1,AU021092,Tcf15,Angpt2,Tmem100,Hpgd</t>
+  </si>
+  <si>
+    <t>Fap,Fzd1,Fzd2,Postn,Mmp13,Crabp1,Cpxm1,Htra3,Ccdc80,Cfh,Tnfaip6,Cnn1,Dpt,Lum,Wif1,Col8a1,Otor,Aspn,Mustn1,Mfap4,Sod3,Nbl1,Bgn,Cav1,Serpina3n,Mamdc2</t>
+  </si>
+  <si>
+    <t>Spp1,Lcn2,Aldoc,Sox10,Sox11,Wfdc5,Mia,Trf,Mgll,Pglyrp1,Atp6v1b1,Iyd,Ldhb,Cldn3,Cldn4,Krt8,Comp,Serpina10,Car2,Rbp7,Elf5</t>
+  </si>
+  <si>
+    <t>Sirpa,C1qa,Apoe,Cst3,Cd68,Cd14,Lyz2,Trem2,Slc28a2,S100a9,Il1r2,Rac2,Ccl9,Retnla,Atp6v0d2,Cd5l,Gatm,Ms4a7,Laptm5,Ltc4s,Mpeg1,C5ar1</t>
+  </si>
+  <si>
+    <t>Foxa1,Esr1,Pgr,Prlr,Erbb3,Cited1,Krt7,Wnt7b,Wnt5a,Wnt5b,Wnt4,Stat1,Areg,Wfdc2,Fgb,Stc2,Ptn,Reg3g,Hp,Timp3,Krt19,Areg,Myh11,Runx2</t>
+  </si>
+  <si>
+    <t>Lst1,Alox5ap,Apoc2,Cybb,Ms4a6c</t>
+  </si>
+  <si>
+    <t>Krt14,Krt5,Acta2,S100a14,Serpinb5</t>
+  </si>
+  <si>
+    <t>Kcna1,Fxyd1,Pmp22,Gm13889,Gad1,Slc17a7,Cux2,Gfap,Pvalb,Chl1,Plp1,Ppbp,Sox2,Cplx2</t>
+  </si>
+  <si>
+    <t>s100A8,Il1b,Csf3r,Cd300lf,Cxcr2</t>
+  </si>
+  <si>
+    <t>Nkg7,Klrb1c,Gzma,Klra8,Stmn1</t>
+  </si>
+  <si>
+    <t>Il1rl1,Pdcd1,Trgc1,Cd4,Cd3e,Foxp3,Cd3d,Ctla4,Ctsg,Ms4a6b,Epsti1,Mpo</t>
+  </si>
+  <si>
+    <t>Cd274,Cd47,Erbb2,ERBB2,ERBB2_exon15_16,ERBB2_exon15_17,ERBB2_exon16_17,mKO,mTFP1,eYFP,Tnf,Tnfrsf1a,Pik3ca</t>
+  </si>
+  <si>
+    <t>Adipocytes_xms</t>
+  </si>
+  <si>
+    <t>Alveolar_xms</t>
+  </si>
+  <si>
+    <t>B cell_xms</t>
+  </si>
+  <si>
+    <t>Basal_xms</t>
+  </si>
+  <si>
+    <t>Dendritic cell_xms</t>
+  </si>
+  <si>
+    <t>Endothelial_xms</t>
+  </si>
+  <si>
+    <t>Fibroblast_xms</t>
+  </si>
+  <si>
+    <t>Luminal_xms</t>
+  </si>
+  <si>
+    <t>Macrophage_xms</t>
+  </si>
+  <si>
+    <t>Mature Luminal_xms</t>
+  </si>
+  <si>
+    <t>Monocyte_xms</t>
+  </si>
+  <si>
+    <t>Myoepithelial_xms</t>
+  </si>
+  <si>
+    <t>Neuron_xms</t>
+  </si>
+  <si>
+    <t>Neutrophil_xms</t>
+  </si>
+  <si>
+    <t>NK cell_xms</t>
+  </si>
+  <si>
+    <t>T cell_xms</t>
+  </si>
+  <si>
+    <t>Tumor cell_xms</t>
+  </si>
+  <si>
+    <t>XeniumMouseGeneral</t>
+  </si>
+  <si>
+    <t>Adipocytes_xmg</t>
+  </si>
+  <si>
+    <t>Endothelial_xmg</t>
+  </si>
+  <si>
+    <t>Fibroblast_xmg</t>
+  </si>
+  <si>
+    <t>Neuron_xmg</t>
+  </si>
+  <si>
+    <t>Luminal_xmg</t>
+  </si>
+  <si>
+    <t>Foxa1,Esr1,Pgr,Prlr,Cd274,Cd47,Spp1,Lcn2,Csn3,Csn2,Wfdc18,Erbb3,Erbb2,ERBB2,Aldoc,Cited1,Krt7,Elf5,ERBB2_exon15_16,ERBB2_exon15_17,ERBB2_exon16_17,mKO,mTFP1,eYFP,Wnt7b,Wnt5a,Wnt5b,Wnt4,Rspo1,Sox10,Sox11,Tnf,Tnfrsf1a,Pik3ca,Stat1,Areg,Wfdc5,Lalba,Ltf,Mia,Trf,Wfdc2,Fgb,Stc2,Ptn,Reg3g,Mgll,Hp,Pglyrp1,Atp6v1b1,Iyd,Ldhb,Timp3,Krt19,Cldn3,Areg,Cldn4,Krt8,Comp,Serpina10,Car2,Myh11,Rbp7,Runx2</t>
+  </si>
+  <si>
+    <t>Lymphoid_xmg</t>
+  </si>
+  <si>
+    <t>Il1rl1,Pdcd1,Cd79a,Cd19,Igkc,Cd74,Trgc1,Nkg7,Klrb1c,Gzma,Ly6d,Jchain,Cd4,Cd3e,Foxp3,Klra8,Slc4a1,Slc25a37,Cpa3,Cd3d,Ctla4,Stmn1,Ctsg,Ms4a6b,Epsti1,Mpo</t>
+  </si>
+  <si>
+    <t>Myeloid_xmg</t>
+  </si>
+  <si>
+    <t>Sirpa,C1qa,Apoe,Cst3,s100A8,Cd68,Cd14,Il1b,Lyz2,Trem2,Slc28a2,S100a9,Il1r2,Rac2,Ccl9,Retnla,Lst1,Atp6v0d2,Alox5ap,Apoc2,Cybb,Csf3r,Cd5l,Gatm,Ms4a7,Laptm5,Cd300lf,Ltc4s,Cxcr2,Plbd1,Mpeg1,C5ar1,Ms4a6c,Psmb8</t>
+  </si>
+  <si>
+    <t>Basal_xmg</t>
+  </si>
+  <si>
+    <t>Krt14,Krt5,Acta2,Lgr5,Fst,Krt17,Lama1,Krt16,S100a14,Krt13,Serpinb5,Them5,Sostdc1,Fxyd4,Col17a1</t>
+  </si>
+  <si>
+    <t>XeniumMouseTissue</t>
+  </si>
+  <si>
+    <t>Epithelial_xmt</t>
+  </si>
+  <si>
+    <t>Foxa1,Esr1,Pgr,Krt14,Krt5,Acta2,Prlr,Cd274,Cd47,Spp1,Lcn2,Csn3,Csn2,Wfdc18,Erbb3,Erbb2,ERBB2,Top2a,Lgr5,Aldoc,Cited1,Krt7,Elf5,ERBB2_exon15_16,ERBB2_exon15_17,ERBB2_exon16_17,mKO,mTFP1,eYFP,Wnt7b,Wnt5a,Wnt5b,Wnt4,Rspo1,Sox10,Sox11,Tnf,Tnfrsf1a,Pik3ca,Stat1,Areg,Wfdc5,Lalba,Ltf,Mia,Trf,Fst,Krt17,Lama1,Wfdc2,Fgb,Stc2,Ptn,Reg3g,Krt16,S100a14,Krt13,Serpinb5,Them5,Mgll,Hp,Pglyrp1,Epcam,Atp6v1b1,Iyd,Sostdc1,Ldhb,Fxyd4,Timp3,Krt19,Cldn3,Areg,Cldn4,Krt8,Comp,Serpina10,Col17a1,Car2,Myh11,Rbp7,Runx2</t>
+  </si>
+  <si>
+    <t>Immune_xmt</t>
+  </si>
+  <si>
+    <t>Il1rl1,Pdcd1,Sirpa,Cd79a,Cd19,Igkc,Cd74,Trgc1,Ptprc,C1qa,Apoe,Cst3,s100A8,Nkg7,Klrb1c,Gzma,Ly6d,Jchain,Cd4,Cd3e,Foxp3,Cd68,Cd14,Il1b,Lyz2,Trem2,Slc28a2,S100a9,Il1r2,Rac2,Klra8,Slc4a1,Slc25a37,Cpa3,Ccl9,Cd3d,Retnla,Lst1,Atp6v0d2,Alox5ap,Apoc2,Cybb,Csf3r,Ctla4,Stmn1,Cd5l,Gatm,Ms4a7,Ctsg,Laptm5,Cd300lf,Ms4a6b,Ltc4s,Cxcr2,Plbd1,Mpeg1,Epsti1,C5ar1,Mpo,Ms4a6c,Psmb8</t>
+  </si>
+  <si>
+    <t>Neuronal_xmt</t>
+  </si>
+  <si>
+    <t>Stromal_xmt</t>
+  </si>
+  <si>
+    <t>Fap,Fzd1,Fzd2,Fzd4,Fabp4,Adipoq,Lpl,Postn,Mmp13,Crabp1,Cpxm1,col3a1,Bmp2,Cavin2,Ackr3,Marco,Anxa2,Nts,Htra3,Ccdc80,Cfh,Eng,Gpihbp1,Ctla2a,Tnfaip6,Cnn1,Dpt,Lum,Retn,Mylk,Plvap,Wif1,Col8a1,Otor,Tmem100,Hpgd,Aspn,Mustn1,Mfap4,Sod3,Vwf,Clec14a,Gng11,Nbl1,Bgn,Cav1,Aqp7,Serpina3n,Tie1,AU021092,Tcf15,Angpt2,Mamdc2</t>
   </si>
 </sst>
 </file>
@@ -872,17 +1051,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="9">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="8">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -1273,10 +1442,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E102"/>
+  <dimension ref="A1:E131"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A112" zoomScale="144" zoomScaleNormal="144" workbookViewId="0">
-      <selection activeCell="B97" sqref="B97"/>
+    <sheetView tabSelected="1" zoomScale="144" zoomScaleNormal="144" workbookViewId="0">
+      <selection activeCell="A129" sqref="A129:A131"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2572,31 +2741,346 @@
         <v>242</v>
       </c>
     </row>
+    <row r="103" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A103" t="s">
+        <v>245</v>
+      </c>
+      <c r="B103" t="s">
+        <v>263</v>
+      </c>
+      <c r="C103" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A104" t="s">
+        <v>245</v>
+      </c>
+      <c r="B104" t="s">
+        <v>264</v>
+      </c>
+      <c r="C104" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A105" t="s">
+        <v>245</v>
+      </c>
+      <c r="B105" t="s">
+        <v>265</v>
+      </c>
+      <c r="C105" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A106" t="s">
+        <v>245</v>
+      </c>
+      <c r="B106" t="s">
+        <v>266</v>
+      </c>
+      <c r="C106" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A107" t="s">
+        <v>245</v>
+      </c>
+      <c r="B107" t="s">
+        <v>267</v>
+      </c>
+      <c r="C107" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A108" t="s">
+        <v>245</v>
+      </c>
+      <c r="B108" t="s">
+        <v>268</v>
+      </c>
+      <c r="C108" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A109" t="s">
+        <v>245</v>
+      </c>
+      <c r="B109" t="s">
+        <v>269</v>
+      </c>
+      <c r="C109" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A110" t="s">
+        <v>245</v>
+      </c>
+      <c r="B110" t="s">
+        <v>270</v>
+      </c>
+      <c r="C110" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A111" t="s">
+        <v>245</v>
+      </c>
+      <c r="B111" t="s">
+        <v>271</v>
+      </c>
+      <c r="C111" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A112" t="s">
+        <v>245</v>
+      </c>
+      <c r="B112" t="s">
+        <v>272</v>
+      </c>
+      <c r="C112" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A113" t="s">
+        <v>245</v>
+      </c>
+      <c r="B113" t="s">
+        <v>273</v>
+      </c>
+      <c r="C113" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A114" t="s">
+        <v>245</v>
+      </c>
+      <c r="B114" t="s">
+        <v>274</v>
+      </c>
+      <c r="C114" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A115" t="s">
+        <v>245</v>
+      </c>
+      <c r="B115" t="s">
+        <v>275</v>
+      </c>
+      <c r="C115" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A116" t="s">
+        <v>245</v>
+      </c>
+      <c r="B116" t="s">
+        <v>276</v>
+      </c>
+      <c r="C116" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A117" t="s">
+        <v>245</v>
+      </c>
+      <c r="B117" t="s">
+        <v>277</v>
+      </c>
+      <c r="C117" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A118" t="s">
+        <v>245</v>
+      </c>
+      <c r="B118" t="s">
+        <v>278</v>
+      </c>
+      <c r="C118" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A119" t="s">
+        <v>245</v>
+      </c>
+      <c r="B119" t="s">
+        <v>279</v>
+      </c>
+      <c r="C119" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A120" t="s">
+        <v>280</v>
+      </c>
+      <c r="B120" s="7" t="s">
+        <v>281</v>
+      </c>
+      <c r="C120" s="7" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A121" t="s">
+        <v>280</v>
+      </c>
+      <c r="B121" s="7" t="s">
+        <v>282</v>
+      </c>
+      <c r="C121" s="7" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A122" t="s">
+        <v>280</v>
+      </c>
+      <c r="B122" s="7" t="s">
+        <v>283</v>
+      </c>
+      <c r="C122" s="7" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A123" t="s">
+        <v>280</v>
+      </c>
+      <c r="B123" s="7" t="s">
+        <v>284</v>
+      </c>
+      <c r="C123" s="7" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A124" t="s">
+        <v>280</v>
+      </c>
+      <c r="B124" s="7" t="s">
+        <v>285</v>
+      </c>
+      <c r="C124" s="7" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A125" t="s">
+        <v>280</v>
+      </c>
+      <c r="B125" s="7" t="s">
+        <v>287</v>
+      </c>
+      <c r="C125" s="7" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A126" t="s">
+        <v>280</v>
+      </c>
+      <c r="B126" s="7" t="s">
+        <v>289</v>
+      </c>
+      <c r="C126" s="7" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A127" t="s">
+        <v>280</v>
+      </c>
+      <c r="B127" s="7" t="s">
+        <v>291</v>
+      </c>
+      <c r="C127" s="7" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A128" t="s">
+        <v>293</v>
+      </c>
+      <c r="B128" t="s">
+        <v>294</v>
+      </c>
+      <c r="C128" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A129" t="s">
+        <v>293</v>
+      </c>
+      <c r="B129" t="s">
+        <v>296</v>
+      </c>
+      <c r="C129" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A130" t="s">
+        <v>293</v>
+      </c>
+      <c r="B130" t="s">
+        <v>298</v>
+      </c>
+      <c r="C130" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="131" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A131" t="s">
+        <v>293</v>
+      </c>
+      <c r="B131" t="s">
+        <v>299</v>
+      </c>
+      <c r="C131" t="s">
+        <v>300</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:E1" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <conditionalFormatting sqref="B1:B42 B44:B76 B103:B1048576">
-    <cfRule type="duplicateValues" dxfId="8" priority="7"/>
+    <cfRule type="duplicateValues" dxfId="7" priority="7"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1:B76 B103:B1048576">
-    <cfRule type="duplicateValues" dxfId="7" priority="6"/>
+    <cfRule type="duplicateValues" dxfId="6" priority="6"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B103:B1048576 B67:B76 B1:B42 B44:B65">
-    <cfRule type="duplicateValues" dxfId="5" priority="12"/>
+  <conditionalFormatting sqref="B1:B1048576">
+    <cfRule type="duplicateValues" dxfId="5" priority="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B77:B81">
     <cfRule type="duplicateValues" dxfId="4" priority="4"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B77:B81">
     <cfRule type="duplicateValues" dxfId="3" priority="5"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B82:B102">
     <cfRule type="duplicateValues" dxfId="2" priority="2"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B82:B102">
     <cfRule type="duplicateValues" dxfId="1" priority="3"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B1:B1048576">
-    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
+  <conditionalFormatting sqref="B103:B1048576 B67:B76 B1:B42 B44:B65">
+    <cfRule type="duplicateValues" dxfId="0" priority="12"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
